--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.huang\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3204C375-65F7-428B-AB03-C39D6F123609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A2283D-190E-43F8-A927-35B28E83192B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="19490" windowHeight="11060" activeTab="3" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>GPU 名稱</t>
   </si>
@@ -61,6 +61,45 @@
   <si>
     <t>RX 7800 XT</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX 7801 XT</t>
+  </si>
+  <si>
+    <t>RX 7802 XT</t>
+  </si>
+  <si>
+    <t>RX 7803 XT</t>
+  </si>
+  <si>
+    <t>RX 7804 XT</t>
+  </si>
+  <si>
+    <t>RX 7805 XT</t>
+  </si>
+  <si>
+    <t>RX 7806 XT</t>
+  </si>
+  <si>
+    <t>RX 7807 XT</t>
+  </si>
+  <si>
+    <t>RX 7808 XT</t>
+  </si>
+  <si>
+    <t>RX 7809 XT</t>
+  </si>
+  <si>
+    <t>RX 7810 XT</t>
+  </si>
+  <si>
+    <t>RX 7811 XT</t>
+  </si>
+  <si>
+    <t>RX 7812 XT</t>
+  </si>
+  <si>
+    <t>RX 7813 XT</t>
   </si>
 </sst>
 </file>
@@ -622,10 +661,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -672,6 +711,188 @@
         <v>55</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>111</v>
+      </c>
+      <c r="C4">
+        <v>91</v>
+      </c>
+      <c r="D4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>112</v>
+      </c>
+      <c r="C5">
+        <v>92</v>
+      </c>
+      <c r="D5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>113</v>
+      </c>
+      <c r="C6">
+        <v>93</v>
+      </c>
+      <c r="D6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>114</v>
+      </c>
+      <c r="C7">
+        <v>94</v>
+      </c>
+      <c r="D7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>115</v>
+      </c>
+      <c r="C8">
+        <v>95</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>116</v>
+      </c>
+      <c r="C9">
+        <v>96</v>
+      </c>
+      <c r="D9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>117</v>
+      </c>
+      <c r="C10">
+        <v>97</v>
+      </c>
+      <c r="D10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>118</v>
+      </c>
+      <c r="C11">
+        <v>98</v>
+      </c>
+      <c r="D11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>119</v>
+      </c>
+      <c r="C12">
+        <v>99</v>
+      </c>
+      <c r="D12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>121</v>
+      </c>
+      <c r="C14">
+        <v>101</v>
+      </c>
+      <c r="D14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>122</v>
+      </c>
+      <c r="C15">
+        <v>102</v>
+      </c>
+      <c r="D15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>123</v>
+      </c>
+      <c r="C16">
+        <v>103</v>
+      </c>
+      <c r="D16">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.huang\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A2283D-190E-43F8-A927-35B28E83192B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC727DB-D833-4BE8-9036-259E893B372A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19490" windowHeight="11060" activeTab="3" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19490" windowHeight="11060" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
   <si>
     <t>GPU 名稱</t>
   </si>
@@ -483,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFEAC08-C68E-4DC7-8960-5E0970DAA788}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -537,6 +537,48 @@
         <v>55</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>111</v>
+      </c>
+      <c r="C4">
+        <v>91</v>
+      </c>
+      <c r="D4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>112</v>
+      </c>
+      <c r="C5">
+        <v>92</v>
+      </c>
+      <c r="D5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>123</v>
+      </c>
+      <c r="C6">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -545,10 +587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAE2845-E5DA-4A2F-AF36-B0EED8E1A7B7}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -593,6 +635,188 @@
       </c>
       <c r="D3">
         <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>111</v>
+      </c>
+      <c r="C4">
+        <v>91</v>
+      </c>
+      <c r="D4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>112</v>
+      </c>
+      <c r="C5">
+        <v>92</v>
+      </c>
+      <c r="D5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>113</v>
+      </c>
+      <c r="C6">
+        <v>93</v>
+      </c>
+      <c r="D6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>114</v>
+      </c>
+      <c r="C7">
+        <v>94</v>
+      </c>
+      <c r="D7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>115</v>
+      </c>
+      <c r="C8">
+        <v>95</v>
+      </c>
+      <c r="D8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>116</v>
+      </c>
+      <c r="C9">
+        <v>96</v>
+      </c>
+      <c r="D9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>117</v>
+      </c>
+      <c r="C10">
+        <v>97</v>
+      </c>
+      <c r="D10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>118</v>
+      </c>
+      <c r="C11">
+        <v>98</v>
+      </c>
+      <c r="D11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>119</v>
+      </c>
+      <c r="C12">
+        <v>99</v>
+      </c>
+      <c r="D12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>121</v>
+      </c>
+      <c r="C14">
+        <v>101</v>
+      </c>
+      <c r="D14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>122</v>
+      </c>
+      <c r="C15">
+        <v>102</v>
+      </c>
+      <c r="D15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>123</v>
+      </c>
+      <c r="C16">
+        <v>103</v>
+      </c>
+      <c r="D16">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -663,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.huang\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC727DB-D833-4BE8-9036-259E893B372A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93926992-A7ED-47C0-BE84-2A3CE85F8A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19490" windowHeight="11060" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="23160" windowHeight="14530" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
   <si>
     <t>GPU 名稱</t>
   </si>
@@ -100,6 +100,36 @@
   </si>
   <si>
     <t>RX 7813 XT</t>
+  </si>
+  <si>
+    <t>RX 7814 XT</t>
+  </si>
+  <si>
+    <t>RX 7815 XT</t>
+  </si>
+  <si>
+    <t>RX 7816 XT</t>
+  </si>
+  <si>
+    <t>RX 7817 XT</t>
+  </si>
+  <si>
+    <t>RX 7818 XT</t>
+  </si>
+  <si>
+    <t>RX 7819 XT</t>
+  </si>
+  <si>
+    <t>RX 7820 XT</t>
+  </si>
+  <si>
+    <t>RX 7821 XT</t>
+  </si>
+  <si>
+    <t>RX 7822 XT</t>
+  </si>
+  <si>
+    <t>RX 7823 XT</t>
   </si>
 </sst>
 </file>
@@ -483,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFEAC08-C68E-4DC7-8960-5E0970DAA788}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -495,7 +525,7 @@
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,8 +538,56 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -522,8 +600,56 @@
       <c r="D2">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <v>120</v>
+      </c>
+      <c r="F2">
+        <v>95</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <v>120</v>
+      </c>
+      <c r="I2">
+        <v>95</v>
+      </c>
+      <c r="J2">
+        <v>60</v>
+      </c>
+      <c r="K2">
+        <v>120</v>
+      </c>
+      <c r="L2">
+        <v>95</v>
+      </c>
+      <c r="M2">
+        <v>60</v>
+      </c>
+      <c r="N2">
+        <v>60</v>
+      </c>
+      <c r="O2">
+        <v>120</v>
+      </c>
+      <c r="P2">
+        <v>95</v>
+      </c>
+      <c r="Q2">
+        <v>60</v>
+      </c>
+      <c r="R2">
+        <v>120</v>
+      </c>
+      <c r="S2">
+        <v>95</v>
+      </c>
+      <c r="T2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -536,8 +662,56 @@
       <c r="D3">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3">
+        <v>110</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
+      <c r="G3">
+        <v>55</v>
+      </c>
+      <c r="H3">
+        <v>110</v>
+      </c>
+      <c r="I3">
+        <v>90</v>
+      </c>
+      <c r="J3">
+        <v>55</v>
+      </c>
+      <c r="K3">
+        <v>110</v>
+      </c>
+      <c r="L3">
+        <v>90</v>
+      </c>
+      <c r="M3">
+        <v>55</v>
+      </c>
+      <c r="N3">
+        <v>55</v>
+      </c>
+      <c r="O3">
+        <v>110</v>
+      </c>
+      <c r="P3">
+        <v>90</v>
+      </c>
+      <c r="Q3">
+        <v>55</v>
+      </c>
+      <c r="R3">
+        <v>110</v>
+      </c>
+      <c r="S3">
+        <v>90</v>
+      </c>
+      <c r="T3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -550,8 +724,56 @@
       <c r="D4">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4">
+        <v>111</v>
+      </c>
+      <c r="F4">
+        <v>91</v>
+      </c>
+      <c r="G4">
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <v>111</v>
+      </c>
+      <c r="I4">
+        <v>91</v>
+      </c>
+      <c r="J4">
+        <v>56</v>
+      </c>
+      <c r="K4">
+        <v>111</v>
+      </c>
+      <c r="L4">
+        <v>91</v>
+      </c>
+      <c r="M4">
+        <v>56</v>
+      </c>
+      <c r="N4">
+        <v>56</v>
+      </c>
+      <c r="O4">
+        <v>111</v>
+      </c>
+      <c r="P4">
+        <v>91</v>
+      </c>
+      <c r="Q4">
+        <v>56</v>
+      </c>
+      <c r="R4">
+        <v>111</v>
+      </c>
+      <c r="S4">
+        <v>91</v>
+      </c>
+      <c r="T4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -564,8 +786,56 @@
       <c r="D5">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5">
+        <v>112</v>
+      </c>
+      <c r="F5">
+        <v>92</v>
+      </c>
+      <c r="G5">
+        <v>57</v>
+      </c>
+      <c r="H5">
+        <v>112</v>
+      </c>
+      <c r="I5">
+        <v>92</v>
+      </c>
+      <c r="J5">
+        <v>57</v>
+      </c>
+      <c r="K5">
+        <v>112</v>
+      </c>
+      <c r="L5">
+        <v>92</v>
+      </c>
+      <c r="M5">
+        <v>57</v>
+      </c>
+      <c r="N5">
+        <v>57</v>
+      </c>
+      <c r="O5">
+        <v>112</v>
+      </c>
+      <c r="P5">
+        <v>92</v>
+      </c>
+      <c r="Q5">
+        <v>57</v>
+      </c>
+      <c r="R5">
+        <v>112</v>
+      </c>
+      <c r="S5">
+        <v>92</v>
+      </c>
+      <c r="T5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -576,6 +846,674 @@
         <v>103</v>
       </c>
       <c r="D6">
+        <v>68</v>
+      </c>
+      <c r="E6">
+        <v>113</v>
+      </c>
+      <c r="F6">
+        <v>93</v>
+      </c>
+      <c r="G6">
+        <v>58</v>
+      </c>
+      <c r="H6">
+        <v>113</v>
+      </c>
+      <c r="I6">
+        <v>93</v>
+      </c>
+      <c r="J6">
+        <v>58</v>
+      </c>
+      <c r="K6">
+        <v>113</v>
+      </c>
+      <c r="L6">
+        <v>93</v>
+      </c>
+      <c r="M6">
+        <v>58</v>
+      </c>
+      <c r="N6">
+        <v>58</v>
+      </c>
+      <c r="O6">
+        <v>113</v>
+      </c>
+      <c r="P6">
+        <v>93</v>
+      </c>
+      <c r="Q6">
+        <v>58</v>
+      </c>
+      <c r="R6">
+        <v>113</v>
+      </c>
+      <c r="S6">
+        <v>93</v>
+      </c>
+      <c r="T6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>124</v>
+      </c>
+      <c r="C7">
+        <v>103</v>
+      </c>
+      <c r="D7">
+        <v>68</v>
+      </c>
+      <c r="E7">
+        <v>114</v>
+      </c>
+      <c r="F7">
+        <v>94</v>
+      </c>
+      <c r="G7">
+        <v>59</v>
+      </c>
+      <c r="H7">
+        <v>114</v>
+      </c>
+      <c r="I7">
+        <v>94</v>
+      </c>
+      <c r="J7">
+        <v>59</v>
+      </c>
+      <c r="K7">
+        <v>114</v>
+      </c>
+      <c r="L7">
+        <v>94</v>
+      </c>
+      <c r="M7">
+        <v>59</v>
+      </c>
+      <c r="N7">
+        <v>59</v>
+      </c>
+      <c r="O7">
+        <v>114</v>
+      </c>
+      <c r="P7">
+        <v>94</v>
+      </c>
+      <c r="Q7">
+        <v>59</v>
+      </c>
+      <c r="R7">
+        <v>114</v>
+      </c>
+      <c r="S7">
+        <v>94</v>
+      </c>
+      <c r="T7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>125</v>
+      </c>
+      <c r="C8">
+        <v>103</v>
+      </c>
+      <c r="D8">
+        <v>68</v>
+      </c>
+      <c r="E8">
+        <v>115</v>
+      </c>
+      <c r="F8">
+        <v>95</v>
+      </c>
+      <c r="G8">
+        <v>60</v>
+      </c>
+      <c r="H8">
+        <v>115</v>
+      </c>
+      <c r="I8">
+        <v>95</v>
+      </c>
+      <c r="J8">
+        <v>60</v>
+      </c>
+      <c r="K8">
+        <v>115</v>
+      </c>
+      <c r="L8">
+        <v>95</v>
+      </c>
+      <c r="M8">
+        <v>60</v>
+      </c>
+      <c r="N8">
+        <v>60</v>
+      </c>
+      <c r="O8">
+        <v>115</v>
+      </c>
+      <c r="P8">
+        <v>95</v>
+      </c>
+      <c r="Q8">
+        <v>60</v>
+      </c>
+      <c r="R8">
+        <v>115</v>
+      </c>
+      <c r="S8">
+        <v>95</v>
+      </c>
+      <c r="T8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>126</v>
+      </c>
+      <c r="C9">
+        <v>103</v>
+      </c>
+      <c r="D9">
+        <v>68</v>
+      </c>
+      <c r="E9">
+        <v>116</v>
+      </c>
+      <c r="F9">
+        <v>96</v>
+      </c>
+      <c r="G9">
+        <v>61</v>
+      </c>
+      <c r="H9">
+        <v>116</v>
+      </c>
+      <c r="I9">
+        <v>96</v>
+      </c>
+      <c r="J9">
+        <v>61</v>
+      </c>
+      <c r="K9">
+        <v>116</v>
+      </c>
+      <c r="L9">
+        <v>96</v>
+      </c>
+      <c r="M9">
+        <v>61</v>
+      </c>
+      <c r="N9">
+        <v>61</v>
+      </c>
+      <c r="O9">
+        <v>116</v>
+      </c>
+      <c r="P9">
+        <v>96</v>
+      </c>
+      <c r="Q9">
+        <v>61</v>
+      </c>
+      <c r="R9">
+        <v>116</v>
+      </c>
+      <c r="S9">
+        <v>96</v>
+      </c>
+      <c r="T9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>127</v>
+      </c>
+      <c r="C10">
+        <v>103</v>
+      </c>
+      <c r="D10">
+        <v>68</v>
+      </c>
+      <c r="E10">
+        <v>117</v>
+      </c>
+      <c r="F10">
+        <v>97</v>
+      </c>
+      <c r="G10">
+        <v>62</v>
+      </c>
+      <c r="H10">
+        <v>117</v>
+      </c>
+      <c r="I10">
+        <v>97</v>
+      </c>
+      <c r="J10">
+        <v>62</v>
+      </c>
+      <c r="K10">
+        <v>117</v>
+      </c>
+      <c r="L10">
+        <v>97</v>
+      </c>
+      <c r="M10">
+        <v>62</v>
+      </c>
+      <c r="N10">
+        <v>62</v>
+      </c>
+      <c r="O10">
+        <v>117</v>
+      </c>
+      <c r="P10">
+        <v>97</v>
+      </c>
+      <c r="Q10">
+        <v>62</v>
+      </c>
+      <c r="R10">
+        <v>117</v>
+      </c>
+      <c r="S10">
+        <v>97</v>
+      </c>
+      <c r="T10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>128</v>
+      </c>
+      <c r="C11">
+        <v>103</v>
+      </c>
+      <c r="D11">
+        <v>68</v>
+      </c>
+      <c r="E11">
+        <v>118</v>
+      </c>
+      <c r="F11">
+        <v>98</v>
+      </c>
+      <c r="G11">
+        <v>63</v>
+      </c>
+      <c r="H11">
+        <v>118</v>
+      </c>
+      <c r="I11">
+        <v>98</v>
+      </c>
+      <c r="J11">
+        <v>63</v>
+      </c>
+      <c r="K11">
+        <v>118</v>
+      </c>
+      <c r="L11">
+        <v>98</v>
+      </c>
+      <c r="M11">
+        <v>63</v>
+      </c>
+      <c r="N11">
+        <v>63</v>
+      </c>
+      <c r="O11">
+        <v>118</v>
+      </c>
+      <c r="P11">
+        <v>98</v>
+      </c>
+      <c r="Q11">
+        <v>63</v>
+      </c>
+      <c r="R11">
+        <v>118</v>
+      </c>
+      <c r="S11">
+        <v>98</v>
+      </c>
+      <c r="T11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>129</v>
+      </c>
+      <c r="C12">
+        <v>103</v>
+      </c>
+      <c r="D12">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>119</v>
+      </c>
+      <c r="F12">
+        <v>99</v>
+      </c>
+      <c r="G12">
+        <v>64</v>
+      </c>
+      <c r="H12">
+        <v>119</v>
+      </c>
+      <c r="I12">
+        <v>99</v>
+      </c>
+      <c r="J12">
+        <v>64</v>
+      </c>
+      <c r="K12">
+        <v>119</v>
+      </c>
+      <c r="L12">
+        <v>99</v>
+      </c>
+      <c r="M12">
+        <v>64</v>
+      </c>
+      <c r="N12">
+        <v>64</v>
+      </c>
+      <c r="O12">
+        <v>119</v>
+      </c>
+      <c r="P12">
+        <v>99</v>
+      </c>
+      <c r="Q12">
+        <v>64</v>
+      </c>
+      <c r="R12">
+        <v>119</v>
+      </c>
+      <c r="S12">
+        <v>99</v>
+      </c>
+      <c r="T12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>130</v>
+      </c>
+      <c r="C13">
+        <v>103</v>
+      </c>
+      <c r="D13">
+        <v>68</v>
+      </c>
+      <c r="E13">
+        <v>120</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>65</v>
+      </c>
+      <c r="H13">
+        <v>120</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>65</v>
+      </c>
+      <c r="K13">
+        <v>120</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>65</v>
+      </c>
+      <c r="N13">
+        <v>65</v>
+      </c>
+      <c r="O13">
+        <v>120</v>
+      </c>
+      <c r="P13">
+        <v>100</v>
+      </c>
+      <c r="Q13">
+        <v>65</v>
+      </c>
+      <c r="R13">
+        <v>120</v>
+      </c>
+      <c r="S13">
+        <v>100</v>
+      </c>
+      <c r="T13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>131</v>
+      </c>
+      <c r="C14">
+        <v>103</v>
+      </c>
+      <c r="D14">
+        <v>68</v>
+      </c>
+      <c r="E14">
+        <v>121</v>
+      </c>
+      <c r="F14">
+        <v>101</v>
+      </c>
+      <c r="G14">
+        <v>66</v>
+      </c>
+      <c r="H14">
+        <v>121</v>
+      </c>
+      <c r="I14">
+        <v>101</v>
+      </c>
+      <c r="J14">
+        <v>66</v>
+      </c>
+      <c r="K14">
+        <v>121</v>
+      </c>
+      <c r="L14">
+        <v>101</v>
+      </c>
+      <c r="M14">
+        <v>66</v>
+      </c>
+      <c r="N14">
+        <v>66</v>
+      </c>
+      <c r="O14">
+        <v>121</v>
+      </c>
+      <c r="P14">
+        <v>101</v>
+      </c>
+      <c r="Q14">
+        <v>66</v>
+      </c>
+      <c r="R14">
+        <v>121</v>
+      </c>
+      <c r="S14">
+        <v>101</v>
+      </c>
+      <c r="T14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>132</v>
+      </c>
+      <c r="C15">
+        <v>103</v>
+      </c>
+      <c r="D15">
+        <v>68</v>
+      </c>
+      <c r="E15">
+        <v>122</v>
+      </c>
+      <c r="F15">
+        <v>102</v>
+      </c>
+      <c r="G15">
+        <v>67</v>
+      </c>
+      <c r="H15">
+        <v>122</v>
+      </c>
+      <c r="I15">
+        <v>102</v>
+      </c>
+      <c r="J15">
+        <v>67</v>
+      </c>
+      <c r="K15">
+        <v>122</v>
+      </c>
+      <c r="L15">
+        <v>102</v>
+      </c>
+      <c r="M15">
+        <v>67</v>
+      </c>
+      <c r="N15">
+        <v>67</v>
+      </c>
+      <c r="O15">
+        <v>122</v>
+      </c>
+      <c r="P15">
+        <v>102</v>
+      </c>
+      <c r="Q15">
+        <v>67</v>
+      </c>
+      <c r="R15">
+        <v>122</v>
+      </c>
+      <c r="S15">
+        <v>102</v>
+      </c>
+      <c r="T15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>133</v>
+      </c>
+      <c r="C16">
+        <v>103</v>
+      </c>
+      <c r="D16">
+        <v>68</v>
+      </c>
+      <c r="E16">
+        <v>123</v>
+      </c>
+      <c r="F16">
+        <v>103</v>
+      </c>
+      <c r="G16">
+        <v>68</v>
+      </c>
+      <c r="H16">
+        <v>123</v>
+      </c>
+      <c r="I16">
+        <v>103</v>
+      </c>
+      <c r="J16">
+        <v>68</v>
+      </c>
+      <c r="K16">
+        <v>123</v>
+      </c>
+      <c r="L16">
+        <v>103</v>
+      </c>
+      <c r="M16">
+        <v>68</v>
+      </c>
+      <c r="N16">
+        <v>68</v>
+      </c>
+      <c r="O16">
+        <v>123</v>
+      </c>
+      <c r="P16">
+        <v>103</v>
+      </c>
+      <c r="Q16">
+        <v>68</v>
+      </c>
+      <c r="R16">
+        <v>123</v>
+      </c>
+      <c r="S16">
+        <v>103</v>
+      </c>
+      <c r="T16">
         <v>68</v>
       </c>
     </row>
@@ -590,7 +1528,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D16" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.huang\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93926992-A7ED-47C0-BE84-2A3CE85F8A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84E678F-51DC-4112-9FC4-53E3CE1EBF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="23160" windowHeight="14530" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="29">
   <si>
     <t>GPU 名稱</t>
   </si>
@@ -513,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFEAC08-C68E-4DC7-8960-5E0970DAA788}">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:AT16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AT1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -525,7 +525,7 @@
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,8 +586,86 @@
       <c r="T1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -648,8 +726,86 @@
       <c r="T2">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U2">
+        <v>120</v>
+      </c>
+      <c r="V2">
+        <v>95</v>
+      </c>
+      <c r="W2">
+        <v>60</v>
+      </c>
+      <c r="X2">
+        <v>120</v>
+      </c>
+      <c r="Y2">
+        <v>95</v>
+      </c>
+      <c r="Z2">
+        <v>60</v>
+      </c>
+      <c r="AA2">
+        <v>60</v>
+      </c>
+      <c r="AB2">
+        <v>120</v>
+      </c>
+      <c r="AC2">
+        <v>95</v>
+      </c>
+      <c r="AD2">
+        <v>60</v>
+      </c>
+      <c r="AE2">
+        <v>120</v>
+      </c>
+      <c r="AF2">
+        <v>95</v>
+      </c>
+      <c r="AG2">
+        <v>60</v>
+      </c>
+      <c r="AH2">
+        <v>120</v>
+      </c>
+      <c r="AI2">
+        <v>95</v>
+      </c>
+      <c r="AJ2">
+        <v>60</v>
+      </c>
+      <c r="AK2">
+        <v>120</v>
+      </c>
+      <c r="AL2">
+        <v>95</v>
+      </c>
+      <c r="AM2">
+        <v>60</v>
+      </c>
+      <c r="AN2">
+        <v>60</v>
+      </c>
+      <c r="AO2">
+        <v>120</v>
+      </c>
+      <c r="AP2">
+        <v>95</v>
+      </c>
+      <c r="AQ2">
+        <v>60</v>
+      </c>
+      <c r="AR2">
+        <v>120</v>
+      </c>
+      <c r="AS2">
+        <v>95</v>
+      </c>
+      <c r="AT2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -710,8 +866,86 @@
       <c r="T3">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U3">
+        <v>110</v>
+      </c>
+      <c r="V3">
+        <v>90</v>
+      </c>
+      <c r="W3">
+        <v>55</v>
+      </c>
+      <c r="X3">
+        <v>110</v>
+      </c>
+      <c r="Y3">
+        <v>90</v>
+      </c>
+      <c r="Z3">
+        <v>55</v>
+      </c>
+      <c r="AA3">
+        <v>55</v>
+      </c>
+      <c r="AB3">
+        <v>110</v>
+      </c>
+      <c r="AC3">
+        <v>90</v>
+      </c>
+      <c r="AD3">
+        <v>55</v>
+      </c>
+      <c r="AE3">
+        <v>110</v>
+      </c>
+      <c r="AF3">
+        <v>90</v>
+      </c>
+      <c r="AG3">
+        <v>55</v>
+      </c>
+      <c r="AH3">
+        <v>110</v>
+      </c>
+      <c r="AI3">
+        <v>90</v>
+      </c>
+      <c r="AJ3">
+        <v>55</v>
+      </c>
+      <c r="AK3">
+        <v>110</v>
+      </c>
+      <c r="AL3">
+        <v>90</v>
+      </c>
+      <c r="AM3">
+        <v>55</v>
+      </c>
+      <c r="AN3">
+        <v>55</v>
+      </c>
+      <c r="AO3">
+        <v>110</v>
+      </c>
+      <c r="AP3">
+        <v>90</v>
+      </c>
+      <c r="AQ3">
+        <v>55</v>
+      </c>
+      <c r="AR3">
+        <v>110</v>
+      </c>
+      <c r="AS3">
+        <v>90</v>
+      </c>
+      <c r="AT3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -772,8 +1006,86 @@
       <c r="T4">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U4">
+        <v>111</v>
+      </c>
+      <c r="V4">
+        <v>91</v>
+      </c>
+      <c r="W4">
+        <v>56</v>
+      </c>
+      <c r="X4">
+        <v>111</v>
+      </c>
+      <c r="Y4">
+        <v>91</v>
+      </c>
+      <c r="Z4">
+        <v>56</v>
+      </c>
+      <c r="AA4">
+        <v>56</v>
+      </c>
+      <c r="AB4">
+        <v>111</v>
+      </c>
+      <c r="AC4">
+        <v>91</v>
+      </c>
+      <c r="AD4">
+        <v>56</v>
+      </c>
+      <c r="AE4">
+        <v>111</v>
+      </c>
+      <c r="AF4">
+        <v>91</v>
+      </c>
+      <c r="AG4">
+        <v>56</v>
+      </c>
+      <c r="AH4">
+        <v>111</v>
+      </c>
+      <c r="AI4">
+        <v>91</v>
+      </c>
+      <c r="AJ4">
+        <v>56</v>
+      </c>
+      <c r="AK4">
+        <v>111</v>
+      </c>
+      <c r="AL4">
+        <v>91</v>
+      </c>
+      <c r="AM4">
+        <v>56</v>
+      </c>
+      <c r="AN4">
+        <v>56</v>
+      </c>
+      <c r="AO4">
+        <v>111</v>
+      </c>
+      <c r="AP4">
+        <v>91</v>
+      </c>
+      <c r="AQ4">
+        <v>56</v>
+      </c>
+      <c r="AR4">
+        <v>111</v>
+      </c>
+      <c r="AS4">
+        <v>91</v>
+      </c>
+      <c r="AT4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -834,8 +1146,86 @@
       <c r="T5">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U5">
+        <v>112</v>
+      </c>
+      <c r="V5">
+        <v>92</v>
+      </c>
+      <c r="W5">
+        <v>57</v>
+      </c>
+      <c r="X5">
+        <v>112</v>
+      </c>
+      <c r="Y5">
+        <v>92</v>
+      </c>
+      <c r="Z5">
+        <v>57</v>
+      </c>
+      <c r="AA5">
+        <v>57</v>
+      </c>
+      <c r="AB5">
+        <v>112</v>
+      </c>
+      <c r="AC5">
+        <v>92</v>
+      </c>
+      <c r="AD5">
+        <v>57</v>
+      </c>
+      <c r="AE5">
+        <v>112</v>
+      </c>
+      <c r="AF5">
+        <v>92</v>
+      </c>
+      <c r="AG5">
+        <v>57</v>
+      </c>
+      <c r="AH5">
+        <v>112</v>
+      </c>
+      <c r="AI5">
+        <v>92</v>
+      </c>
+      <c r="AJ5">
+        <v>57</v>
+      </c>
+      <c r="AK5">
+        <v>112</v>
+      </c>
+      <c r="AL5">
+        <v>92</v>
+      </c>
+      <c r="AM5">
+        <v>57</v>
+      </c>
+      <c r="AN5">
+        <v>57</v>
+      </c>
+      <c r="AO5">
+        <v>112</v>
+      </c>
+      <c r="AP5">
+        <v>92</v>
+      </c>
+      <c r="AQ5">
+        <v>57</v>
+      </c>
+      <c r="AR5">
+        <v>112</v>
+      </c>
+      <c r="AS5">
+        <v>92</v>
+      </c>
+      <c r="AT5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -896,8 +1286,86 @@
       <c r="T6">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U6">
+        <v>113</v>
+      </c>
+      <c r="V6">
+        <v>93</v>
+      </c>
+      <c r="W6">
+        <v>58</v>
+      </c>
+      <c r="X6">
+        <v>113</v>
+      </c>
+      <c r="Y6">
+        <v>93</v>
+      </c>
+      <c r="Z6">
+        <v>58</v>
+      </c>
+      <c r="AA6">
+        <v>58</v>
+      </c>
+      <c r="AB6">
+        <v>113</v>
+      </c>
+      <c r="AC6">
+        <v>93</v>
+      </c>
+      <c r="AD6">
+        <v>58</v>
+      </c>
+      <c r="AE6">
+        <v>113</v>
+      </c>
+      <c r="AF6">
+        <v>93</v>
+      </c>
+      <c r="AG6">
+        <v>58</v>
+      </c>
+      <c r="AH6">
+        <v>113</v>
+      </c>
+      <c r="AI6">
+        <v>93</v>
+      </c>
+      <c r="AJ6">
+        <v>58</v>
+      </c>
+      <c r="AK6">
+        <v>113</v>
+      </c>
+      <c r="AL6">
+        <v>93</v>
+      </c>
+      <c r="AM6">
+        <v>58</v>
+      </c>
+      <c r="AN6">
+        <v>58</v>
+      </c>
+      <c r="AO6">
+        <v>113</v>
+      </c>
+      <c r="AP6">
+        <v>93</v>
+      </c>
+      <c r="AQ6">
+        <v>58</v>
+      </c>
+      <c r="AR6">
+        <v>113</v>
+      </c>
+      <c r="AS6">
+        <v>93</v>
+      </c>
+      <c r="AT6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -958,8 +1426,86 @@
       <c r="T7">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U7">
+        <v>114</v>
+      </c>
+      <c r="V7">
+        <v>94</v>
+      </c>
+      <c r="W7">
+        <v>59</v>
+      </c>
+      <c r="X7">
+        <v>114</v>
+      </c>
+      <c r="Y7">
+        <v>94</v>
+      </c>
+      <c r="Z7">
+        <v>59</v>
+      </c>
+      <c r="AA7">
+        <v>59</v>
+      </c>
+      <c r="AB7">
+        <v>114</v>
+      </c>
+      <c r="AC7">
+        <v>94</v>
+      </c>
+      <c r="AD7">
+        <v>59</v>
+      </c>
+      <c r="AE7">
+        <v>114</v>
+      </c>
+      <c r="AF7">
+        <v>94</v>
+      </c>
+      <c r="AG7">
+        <v>59</v>
+      </c>
+      <c r="AH7">
+        <v>114</v>
+      </c>
+      <c r="AI7">
+        <v>94</v>
+      </c>
+      <c r="AJ7">
+        <v>59</v>
+      </c>
+      <c r="AK7">
+        <v>114</v>
+      </c>
+      <c r="AL7">
+        <v>94</v>
+      </c>
+      <c r="AM7">
+        <v>59</v>
+      </c>
+      <c r="AN7">
+        <v>59</v>
+      </c>
+      <c r="AO7">
+        <v>114</v>
+      </c>
+      <c r="AP7">
+        <v>94</v>
+      </c>
+      <c r="AQ7">
+        <v>59</v>
+      </c>
+      <c r="AR7">
+        <v>114</v>
+      </c>
+      <c r="AS7">
+        <v>94</v>
+      </c>
+      <c r="AT7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1020,8 +1566,86 @@
       <c r="T8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U8">
+        <v>115</v>
+      </c>
+      <c r="V8">
+        <v>95</v>
+      </c>
+      <c r="W8">
+        <v>60</v>
+      </c>
+      <c r="X8">
+        <v>115</v>
+      </c>
+      <c r="Y8">
+        <v>95</v>
+      </c>
+      <c r="Z8">
+        <v>60</v>
+      </c>
+      <c r="AA8">
+        <v>60</v>
+      </c>
+      <c r="AB8">
+        <v>115</v>
+      </c>
+      <c r="AC8">
+        <v>95</v>
+      </c>
+      <c r="AD8">
+        <v>60</v>
+      </c>
+      <c r="AE8">
+        <v>115</v>
+      </c>
+      <c r="AF8">
+        <v>95</v>
+      </c>
+      <c r="AG8">
+        <v>60</v>
+      </c>
+      <c r="AH8">
+        <v>115</v>
+      </c>
+      <c r="AI8">
+        <v>95</v>
+      </c>
+      <c r="AJ8">
+        <v>60</v>
+      </c>
+      <c r="AK8">
+        <v>115</v>
+      </c>
+      <c r="AL8">
+        <v>95</v>
+      </c>
+      <c r="AM8">
+        <v>60</v>
+      </c>
+      <c r="AN8">
+        <v>60</v>
+      </c>
+      <c r="AO8">
+        <v>115</v>
+      </c>
+      <c r="AP8">
+        <v>95</v>
+      </c>
+      <c r="AQ8">
+        <v>60</v>
+      </c>
+      <c r="AR8">
+        <v>115</v>
+      </c>
+      <c r="AS8">
+        <v>95</v>
+      </c>
+      <c r="AT8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1082,8 +1706,86 @@
       <c r="T9">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U9">
+        <v>116</v>
+      </c>
+      <c r="V9">
+        <v>96</v>
+      </c>
+      <c r="W9">
+        <v>61</v>
+      </c>
+      <c r="X9">
+        <v>116</v>
+      </c>
+      <c r="Y9">
+        <v>96</v>
+      </c>
+      <c r="Z9">
+        <v>61</v>
+      </c>
+      <c r="AA9">
+        <v>61</v>
+      </c>
+      <c r="AB9">
+        <v>116</v>
+      </c>
+      <c r="AC9">
+        <v>96</v>
+      </c>
+      <c r="AD9">
+        <v>61</v>
+      </c>
+      <c r="AE9">
+        <v>116</v>
+      </c>
+      <c r="AF9">
+        <v>96</v>
+      </c>
+      <c r="AG9">
+        <v>61</v>
+      </c>
+      <c r="AH9">
+        <v>116</v>
+      </c>
+      <c r="AI9">
+        <v>96</v>
+      </c>
+      <c r="AJ9">
+        <v>61</v>
+      </c>
+      <c r="AK9">
+        <v>116</v>
+      </c>
+      <c r="AL9">
+        <v>96</v>
+      </c>
+      <c r="AM9">
+        <v>61</v>
+      </c>
+      <c r="AN9">
+        <v>61</v>
+      </c>
+      <c r="AO9">
+        <v>116</v>
+      </c>
+      <c r="AP9">
+        <v>96</v>
+      </c>
+      <c r="AQ9">
+        <v>61</v>
+      </c>
+      <c r="AR9">
+        <v>116</v>
+      </c>
+      <c r="AS9">
+        <v>96</v>
+      </c>
+      <c r="AT9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1144,8 +1846,86 @@
       <c r="T10">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U10">
+        <v>117</v>
+      </c>
+      <c r="V10">
+        <v>97</v>
+      </c>
+      <c r="W10">
+        <v>62</v>
+      </c>
+      <c r="X10">
+        <v>117</v>
+      </c>
+      <c r="Y10">
+        <v>97</v>
+      </c>
+      <c r="Z10">
+        <v>62</v>
+      </c>
+      <c r="AA10">
+        <v>62</v>
+      </c>
+      <c r="AB10">
+        <v>117</v>
+      </c>
+      <c r="AC10">
+        <v>97</v>
+      </c>
+      <c r="AD10">
+        <v>62</v>
+      </c>
+      <c r="AE10">
+        <v>117</v>
+      </c>
+      <c r="AF10">
+        <v>97</v>
+      </c>
+      <c r="AG10">
+        <v>62</v>
+      </c>
+      <c r="AH10">
+        <v>117</v>
+      </c>
+      <c r="AI10">
+        <v>97</v>
+      </c>
+      <c r="AJ10">
+        <v>62</v>
+      </c>
+      <c r="AK10">
+        <v>117</v>
+      </c>
+      <c r="AL10">
+        <v>97</v>
+      </c>
+      <c r="AM10">
+        <v>62</v>
+      </c>
+      <c r="AN10">
+        <v>62</v>
+      </c>
+      <c r="AO10">
+        <v>117</v>
+      </c>
+      <c r="AP10">
+        <v>97</v>
+      </c>
+      <c r="AQ10">
+        <v>62</v>
+      </c>
+      <c r="AR10">
+        <v>117</v>
+      </c>
+      <c r="AS10">
+        <v>97</v>
+      </c>
+      <c r="AT10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1206,8 +1986,86 @@
       <c r="T11">
         <v>63</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U11">
+        <v>118</v>
+      </c>
+      <c r="V11">
+        <v>98</v>
+      </c>
+      <c r="W11">
+        <v>63</v>
+      </c>
+      <c r="X11">
+        <v>118</v>
+      </c>
+      <c r="Y11">
+        <v>98</v>
+      </c>
+      <c r="Z11">
+        <v>63</v>
+      </c>
+      <c r="AA11">
+        <v>63</v>
+      </c>
+      <c r="AB11">
+        <v>118</v>
+      </c>
+      <c r="AC11">
+        <v>98</v>
+      </c>
+      <c r="AD11">
+        <v>63</v>
+      </c>
+      <c r="AE11">
+        <v>118</v>
+      </c>
+      <c r="AF11">
+        <v>98</v>
+      </c>
+      <c r="AG11">
+        <v>63</v>
+      </c>
+      <c r="AH11">
+        <v>118</v>
+      </c>
+      <c r="AI11">
+        <v>98</v>
+      </c>
+      <c r="AJ11">
+        <v>63</v>
+      </c>
+      <c r="AK11">
+        <v>118</v>
+      </c>
+      <c r="AL11">
+        <v>98</v>
+      </c>
+      <c r="AM11">
+        <v>63</v>
+      </c>
+      <c r="AN11">
+        <v>63</v>
+      </c>
+      <c r="AO11">
+        <v>118</v>
+      </c>
+      <c r="AP11">
+        <v>98</v>
+      </c>
+      <c r="AQ11">
+        <v>63</v>
+      </c>
+      <c r="AR11">
+        <v>118</v>
+      </c>
+      <c r="AS11">
+        <v>98</v>
+      </c>
+      <c r="AT11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -1268,8 +2126,86 @@
       <c r="T12">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U12">
+        <v>119</v>
+      </c>
+      <c r="V12">
+        <v>99</v>
+      </c>
+      <c r="W12">
+        <v>64</v>
+      </c>
+      <c r="X12">
+        <v>119</v>
+      </c>
+      <c r="Y12">
+        <v>99</v>
+      </c>
+      <c r="Z12">
+        <v>64</v>
+      </c>
+      <c r="AA12">
+        <v>64</v>
+      </c>
+      <c r="AB12">
+        <v>119</v>
+      </c>
+      <c r="AC12">
+        <v>99</v>
+      </c>
+      <c r="AD12">
+        <v>64</v>
+      </c>
+      <c r="AE12">
+        <v>119</v>
+      </c>
+      <c r="AF12">
+        <v>99</v>
+      </c>
+      <c r="AG12">
+        <v>64</v>
+      </c>
+      <c r="AH12">
+        <v>119</v>
+      </c>
+      <c r="AI12">
+        <v>99</v>
+      </c>
+      <c r="AJ12">
+        <v>64</v>
+      </c>
+      <c r="AK12">
+        <v>119</v>
+      </c>
+      <c r="AL12">
+        <v>99</v>
+      </c>
+      <c r="AM12">
+        <v>64</v>
+      </c>
+      <c r="AN12">
+        <v>64</v>
+      </c>
+      <c r="AO12">
+        <v>119</v>
+      </c>
+      <c r="AP12">
+        <v>99</v>
+      </c>
+      <c r="AQ12">
+        <v>64</v>
+      </c>
+      <c r="AR12">
+        <v>119</v>
+      </c>
+      <c r="AS12">
+        <v>99</v>
+      </c>
+      <c r="AT12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +2266,86 @@
       <c r="T13">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U13">
+        <v>120</v>
+      </c>
+      <c r="V13">
+        <v>100</v>
+      </c>
+      <c r="W13">
+        <v>65</v>
+      </c>
+      <c r="X13">
+        <v>120</v>
+      </c>
+      <c r="Y13">
+        <v>100</v>
+      </c>
+      <c r="Z13">
+        <v>65</v>
+      </c>
+      <c r="AA13">
+        <v>65</v>
+      </c>
+      <c r="AB13">
+        <v>120</v>
+      </c>
+      <c r="AC13">
+        <v>100</v>
+      </c>
+      <c r="AD13">
+        <v>65</v>
+      </c>
+      <c r="AE13">
+        <v>120</v>
+      </c>
+      <c r="AF13">
+        <v>100</v>
+      </c>
+      <c r="AG13">
+        <v>65</v>
+      </c>
+      <c r="AH13">
+        <v>120</v>
+      </c>
+      <c r="AI13">
+        <v>100</v>
+      </c>
+      <c r="AJ13">
+        <v>65</v>
+      </c>
+      <c r="AK13">
+        <v>120</v>
+      </c>
+      <c r="AL13">
+        <v>100</v>
+      </c>
+      <c r="AM13">
+        <v>65</v>
+      </c>
+      <c r="AN13">
+        <v>65</v>
+      </c>
+      <c r="AO13">
+        <v>120</v>
+      </c>
+      <c r="AP13">
+        <v>100</v>
+      </c>
+      <c r="AQ13">
+        <v>65</v>
+      </c>
+      <c r="AR13">
+        <v>120</v>
+      </c>
+      <c r="AS13">
+        <v>100</v>
+      </c>
+      <c r="AT13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1392,8 +2406,86 @@
       <c r="T14">
         <v>66</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U14">
+        <v>121</v>
+      </c>
+      <c r="V14">
+        <v>101</v>
+      </c>
+      <c r="W14">
+        <v>66</v>
+      </c>
+      <c r="X14">
+        <v>121</v>
+      </c>
+      <c r="Y14">
+        <v>101</v>
+      </c>
+      <c r="Z14">
+        <v>66</v>
+      </c>
+      <c r="AA14">
+        <v>66</v>
+      </c>
+      <c r="AB14">
+        <v>121</v>
+      </c>
+      <c r="AC14">
+        <v>101</v>
+      </c>
+      <c r="AD14">
+        <v>66</v>
+      </c>
+      <c r="AE14">
+        <v>121</v>
+      </c>
+      <c r="AF14">
+        <v>101</v>
+      </c>
+      <c r="AG14">
+        <v>66</v>
+      </c>
+      <c r="AH14">
+        <v>121</v>
+      </c>
+      <c r="AI14">
+        <v>101</v>
+      </c>
+      <c r="AJ14">
+        <v>66</v>
+      </c>
+      <c r="AK14">
+        <v>121</v>
+      </c>
+      <c r="AL14">
+        <v>101</v>
+      </c>
+      <c r="AM14">
+        <v>66</v>
+      </c>
+      <c r="AN14">
+        <v>66</v>
+      </c>
+      <c r="AO14">
+        <v>121</v>
+      </c>
+      <c r="AP14">
+        <v>101</v>
+      </c>
+      <c r="AQ14">
+        <v>66</v>
+      </c>
+      <c r="AR14">
+        <v>121</v>
+      </c>
+      <c r="AS14">
+        <v>101</v>
+      </c>
+      <c r="AT14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1454,8 +2546,86 @@
       <c r="T15">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U15">
+        <v>122</v>
+      </c>
+      <c r="V15">
+        <v>102</v>
+      </c>
+      <c r="W15">
+        <v>67</v>
+      </c>
+      <c r="X15">
+        <v>122</v>
+      </c>
+      <c r="Y15">
+        <v>102</v>
+      </c>
+      <c r="Z15">
+        <v>67</v>
+      </c>
+      <c r="AA15">
+        <v>67</v>
+      </c>
+      <c r="AB15">
+        <v>122</v>
+      </c>
+      <c r="AC15">
+        <v>102</v>
+      </c>
+      <c r="AD15">
+        <v>67</v>
+      </c>
+      <c r="AE15">
+        <v>122</v>
+      </c>
+      <c r="AF15">
+        <v>102</v>
+      </c>
+      <c r="AG15">
+        <v>67</v>
+      </c>
+      <c r="AH15">
+        <v>122</v>
+      </c>
+      <c r="AI15">
+        <v>102</v>
+      </c>
+      <c r="AJ15">
+        <v>67</v>
+      </c>
+      <c r="AK15">
+        <v>122</v>
+      </c>
+      <c r="AL15">
+        <v>102</v>
+      </c>
+      <c r="AM15">
+        <v>67</v>
+      </c>
+      <c r="AN15">
+        <v>67</v>
+      </c>
+      <c r="AO15">
+        <v>122</v>
+      </c>
+      <c r="AP15">
+        <v>102</v>
+      </c>
+      <c r="AQ15">
+        <v>67</v>
+      </c>
+      <c r="AR15">
+        <v>122</v>
+      </c>
+      <c r="AS15">
+        <v>102</v>
+      </c>
+      <c r="AT15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1514,6 +2684,84 @@
         <v>103</v>
       </c>
       <c r="T16">
+        <v>68</v>
+      </c>
+      <c r="U16">
+        <v>123</v>
+      </c>
+      <c r="V16">
+        <v>103</v>
+      </c>
+      <c r="W16">
+        <v>68</v>
+      </c>
+      <c r="X16">
+        <v>123</v>
+      </c>
+      <c r="Y16">
+        <v>103</v>
+      </c>
+      <c r="Z16">
+        <v>68</v>
+      </c>
+      <c r="AA16">
+        <v>68</v>
+      </c>
+      <c r="AB16">
+        <v>123</v>
+      </c>
+      <c r="AC16">
+        <v>103</v>
+      </c>
+      <c r="AD16">
+        <v>68</v>
+      </c>
+      <c r="AE16">
+        <v>123</v>
+      </c>
+      <c r="AF16">
+        <v>103</v>
+      </c>
+      <c r="AG16">
+        <v>68</v>
+      </c>
+      <c r="AH16">
+        <v>123</v>
+      </c>
+      <c r="AI16">
+        <v>103</v>
+      </c>
+      <c r="AJ16">
+        <v>68</v>
+      </c>
+      <c r="AK16">
+        <v>123</v>
+      </c>
+      <c r="AL16">
+        <v>103</v>
+      </c>
+      <c r="AM16">
+        <v>68</v>
+      </c>
+      <c r="AN16">
+        <v>68</v>
+      </c>
+      <c r="AO16">
+        <v>123</v>
+      </c>
+      <c r="AP16">
+        <v>103</v>
+      </c>
+      <c r="AQ16">
+        <v>68</v>
+      </c>
+      <c r="AR16">
+        <v>123</v>
+      </c>
+      <c r="AS16">
+        <v>103</v>
+      </c>
+      <c r="AT16">
         <v>68</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.huang\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA520C92-0DF4-4521-9AD1-1F8B458F72DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B0FF46-7728-44FB-9C1A-35EC0C02A565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
   <si>
     <t>Brand</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
   <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -986,6 +986,9 @@
       <c r="P2" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="Q2" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="R2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1086,6 +1089,9 @@
       </c>
       <c r="P3" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>38</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.huang\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B0FF46-7728-44FB-9C1A-35EC0C02A565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9855E9-53EE-4CB2-A4FF-20BD831F2D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
+    <workbookView xWindow="2440" yWindow="750" windowWidth="23160" windowHeight="14530" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="SPEC" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
   <si>
     <t>Brand</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
   </si>
   <si>
     <t>CPU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PL2/SPPT (W)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -374,6 +370,18 @@
   </si>
   <si>
     <t>Model \ Benchmark (Game/Quality)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL2/sPPT(W)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Display Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD1048576"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -800,7 +808,7 @@
     <col min="2" max="2" width="6.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
@@ -809,31 +817,32 @@
     <col min="11" max="11" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.7265625" style="2"/>
-    <col min="30" max="30" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="8.7265625" style="2"/>
+    <col min="14" max="14" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.7265625" style="2"/>
+    <col min="31" max="31" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -841,114 +850,117 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AG1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>2025</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E2" s="2">
         <v>82</v>
@@ -957,19 +969,19 @@
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="L2" s="2">
         <v>130</v>
@@ -978,81 +990,84 @@
         <v>16</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="2">
+        <v>400</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="2">
-        <v>400</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="2">
+        <v>2</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="X2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="2">
+      <c r="AB2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD2" s="2">
         <v>2</v>
       </c>
-      <c r="V2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="2">
-        <v>1000</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>240</v>
+      </c>
+      <c r="AH2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>240</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH2" s="2">
+      <c r="AI2" s="2">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2025</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="E3" s="2">
         <v>82</v>
@@ -1061,19 +1076,19 @@
         <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="L3" s="2">
         <v>130</v>
@@ -1082,66 +1097,69 @@
         <v>16</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="2">
+        <v>400</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="2">
-        <v>400</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="T3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="2">
+        <v>2</v>
+      </c>
+      <c r="W3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="2" t="s">
+      <c r="X3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="2">
+      <c r="AB3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD3" s="2">
         <v>2</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W3" s="2">
-        <v>1000</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>240</v>
+      </c>
+      <c r="AH3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE3" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>240</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH3" s="2">
+      <c r="AI3" s="2">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -1178,43 +1196,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -1328,22 +1346,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1425,52 +1443,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
@@ -1612,52 +1630,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.huang\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9855E9-53EE-4CB2-A4FF-20BD831F2D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B63A281-3595-42AE-A5BC-6AA7EF9B23F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2440" yWindow="750" windowWidth="23160" windowHeight="14530" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
@@ -798,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
   <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>2025</v>
+        <v>2000</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>29</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.huang\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B63A281-3595-42AE-A5BC-6AA7EF9B23F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95966F15-6678-4FE4-9351-4A84CCD25F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2440" yWindow="750" windowWidth="23160" windowHeight="14530" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
@@ -799,7 +799,7 @@
   <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>2000</v>
+        <v>9999</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>29</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.huang\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95966F15-6678-4FE4-9351-4A84CCD25F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16442152-432B-4A86-88DF-F1C362E0E798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="750" windowWidth="23160" windowHeight="14530" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="SPEC" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
   <si>
     <t>Brand</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dimension WxDxH (mm)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Weight (kg)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G4x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WIFI 6E/BT 5.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,10 +210,6 @@
   </si>
   <si>
     <t>FHD IR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>358.3x262.5x19.45~22.99</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -382,6 +370,74 @@
   </si>
   <si>
     <t>IPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AORUS MASTER 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U9 275HX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX5090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDDR7 24GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDR5 5600MHz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*G5x4 1*G4x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*G4x4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2A2C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIFI 7/BT 5.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dimension WxD (mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dimension H (mm)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>358.3x262.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>357x254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.45~22.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23~29.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,7 +515,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -796,23 +855,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AJ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
@@ -826,7 +885,7 @@
     <col min="20" max="20" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.90625" style="2" bestFit="1" customWidth="1"/>
@@ -837,12 +896,13 @@
     <col min="31" max="31" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.7265625" style="2"/>
+    <col min="34" max="34" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -850,16 +910,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -868,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
@@ -883,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>9</v>
@@ -928,7 +988,7 @@
         <v>22</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>23</v>
@@ -937,30 +997,33 @@
         <v>24</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>2025</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E2" s="2">
         <v>82</v>
@@ -969,19 +1032,19 @@
         <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2">
         <v>130</v>
@@ -990,49 +1053,49 @@
         <v>16</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P2" s="2">
         <v>400</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="V2" s="2">
         <v>2</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="X2" s="2">
         <v>1000</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AC2" s="2">
         <v>100</v>
@@ -1041,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF2" s="2">
         <v>76</v>
@@ -1050,117 +1113,123 @@
         <v>240</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI2" s="2">
+        <v>96</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ2" s="2">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
-        <v>9999</v>
+        <v>2025</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="E3" s="2">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="F3" s="2">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
+      </c>
+      <c r="J3" s="2">
+        <v>200</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L3" s="2">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="M3" s="2">
         <v>16</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="2">
-        <v>400</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="R3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="2" t="s">
-        <v>39</v>
+      <c r="U3" s="2">
+        <v>2</v>
       </c>
       <c r="V3" s="2">
         <v>2</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="X3" s="2">
         <v>1000</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>39</v>
+        <v>92</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1</v>
       </c>
       <c r="AC3" s="2">
         <v>100</v>
       </c>
       <c r="AD3" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF3" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AG3" s="2">
-        <v>240</v>
+        <v>330</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI3" s="2">
-        <v>2.2999999999999998</v>
+        <v>97</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -1174,149 +1243,137 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="49.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="49.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="4" t="str">
         <f>_xlfn.CONCAT(SPEC!B2,"_",SPEC!C2,"_",SPEC!D2,"_",SPEC!G2,"_",SPEC!I2)</f>
         <v>GBT_GAMING A16 PRO_C7 240H_RTX5080_115W</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>1947</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>13908</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>13235</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>113</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>752</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>755</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>66.599999999999994</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="5">
         <v>39.799999999999997</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="4">
         <v>8436</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="4">
         <v>9366</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="4">
         <v>14214</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="4">
         <v>12241</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="4" t="str">
         <f>_xlfn.CONCAT(SPEC!B3,"_",SPEC!C3,"_",SPEC!D3,"_",SPEC!G3,"_",SPEC!I3)</f>
-        <v>GBT_GAMING A16 PRO_C7 240H_RTX5080_115W</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1947</v>
-      </c>
-      <c r="C3" s="4">
-        <v>13908</v>
-      </c>
-      <c r="D3" s="4">
-        <v>13235</v>
-      </c>
-      <c r="E3" s="4">
-        <v>113</v>
-      </c>
-      <c r="F3" s="4">
-        <v>752</v>
-      </c>
-      <c r="G3" s="4">
-        <v>755</v>
-      </c>
-      <c r="H3" s="4">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="I3" s="4">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="J3" s="2">
-        <v>8436</v>
-      </c>
-      <c r="K3" s="2">
-        <v>9366</v>
-      </c>
-      <c r="L3" s="2">
-        <v>14214</v>
-      </c>
-      <c r="M3" s="2">
-        <v>12241</v>
+        <v>GBT_AORUS MASTER 16_U9 275HX_RTX5090_175W</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2243</v>
+      </c>
+      <c r="C3" s="5">
+        <v>37029</v>
+      </c>
+      <c r="D3" s="5">
+        <v>35236</v>
+      </c>
+      <c r="E3" s="5">
+        <v>137</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2084</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2057</v>
+      </c>
+      <c r="H3" s="5">
+        <v>119.6</v>
+      </c>
+      <c r="I3" s="5">
+        <v>104.6</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1387,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1346,22 +1403,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1388,22 +1445,22 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="str">
         <f>_xlfn.CONCAT(SPEC!B3,"_",SPEC!C3,"_",SPEC!D3,"_",SPEC!G3,"_",SPEC!I3)</f>
-        <v>GBT_GAMING A16 PRO_C7 240H_RTX5080_115W</v>
+        <v>GBT_AORUS MASTER 16_U9 275HX_RTX5090_175W</v>
       </c>
       <c r="B3" s="2">
-        <v>42826</v>
+        <v>51587</v>
       </c>
       <c r="C3" s="2">
-        <v>22255</v>
+        <v>30742</v>
       </c>
       <c r="D3" s="2">
-        <v>11036</v>
+        <v>14984</v>
       </c>
       <c r="E3" s="2">
-        <v>16549</v>
+        <v>24092</v>
       </c>
       <c r="F3" s="2">
-        <v>8041</v>
+        <v>11769</v>
       </c>
     </row>
   </sheetData>
@@ -1416,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B9D477-4E1C-4279-9EC4-F5803BA796EC}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17:O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1443,52 +1500,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
@@ -1545,52 +1602,52 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="str">
         <f>_xlfn.CONCAT(SPEC!B3,"_",SPEC!C3,"_",SPEC!D3,"_",SPEC!G3,"_",SPEC!I3)</f>
-        <v>GBT_GAMING A16 PRO_C7 240H_RTX5080_115W</v>
+        <v>GBT_AORUS MASTER 16_U9 275HX_RTX5090_175W</v>
       </c>
       <c r="B3" s="1">
-        <v>132.15</v>
+        <v>164.15</v>
       </c>
       <c r="C3" s="1">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="D3" s="1">
-        <v>166</v>
+        <v>233.8</v>
       </c>
       <c r="E3" s="1">
-        <v>197.6</v>
+        <v>239.3</v>
       </c>
       <c r="F3" s="1">
-        <v>80.599999999999994</v>
+        <v>113.99</v>
       </c>
       <c r="G3" s="1">
-        <v>224.04</v>
+        <v>278.95999999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="I3" s="1">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="J3" s="1">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="K3" s="1">
-        <v>242.8</v>
+        <v>214.6</v>
       </c>
       <c r="L3" s="1">
-        <v>84.18</v>
+        <v>129</v>
       </c>
       <c r="M3" s="1">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="N3" s="1">
-        <v>103.62</v>
+        <v>160.59</v>
       </c>
       <c r="O3" s="1">
-        <v>60.92</v>
+        <v>100.39</v>
       </c>
       <c r="P3" s="1">
-        <v>307</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1661,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B3" sqref="B3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1630,52 +1687,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
@@ -1732,52 +1789,52 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="str">
         <f>_xlfn.CONCAT(SPEC!B3,"_",SPEC!C3,"_",SPEC!D3,"_",SPEC!G3,"_",SPEC!I3)</f>
-        <v>GBT_GAMING A16 PRO_C7 240H_RTX5080_115W</v>
+        <v>GBT_AORUS MASTER 16_U9 275HX_RTX5090_175W</v>
       </c>
       <c r="B3" s="1">
-        <v>77.489999999999995</v>
+        <v>125.13</v>
       </c>
       <c r="C3" s="1">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="D3" s="1">
-        <v>111.7</v>
+        <v>173.4</v>
       </c>
       <c r="E3" s="1">
-        <v>115.4</v>
+        <v>190.7</v>
       </c>
       <c r="F3" s="1">
-        <v>64</v>
+        <v>96.74</v>
       </c>
       <c r="G3" s="1">
-        <v>136.94</v>
+        <v>237.6</v>
       </c>
       <c r="H3" s="1">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="I3" s="1">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="J3" s="1">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="K3" s="1">
-        <v>162.30000000000001</v>
+        <v>208.3</v>
       </c>
       <c r="L3" s="1">
-        <v>20.86</v>
+        <v>85.29</v>
       </c>
       <c r="M3" s="1">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="N3" s="1">
-        <v>76.260000000000005</v>
+        <v>131.41</v>
       </c>
       <c r="O3" s="1">
-        <v>56.46</v>
+        <v>92.77</v>
       </c>
       <c r="P3" s="1">
-        <v>218</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.huang\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16442152-432B-4A86-88DF-F1C362E0E798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C417E3-9BAC-4964-9AD8-25AAA5C1724E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
   <si>
     <t>Brand</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,6 +438,14 @@
   </si>
   <si>
     <t>23~29.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU Brand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,7 +510,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,10 +523,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -855,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -866,43 +871,44 @@
     <col min="1" max="1" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.7265625" style="2"/>
-    <col min="31" max="31" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.7265625" style="2"/>
+    <col min="4" max="4" width="10.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7265625" style="2"/>
+    <col min="32" max="32" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -913,106 +919,109 @@
         <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>2025</v>
       </c>
@@ -1023,106 +1032,109 @@
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>82</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>70</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2">
         <v>130</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>16</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="2">
+      <c r="Q2" s="2">
         <v>400</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="2">
+      <c r="W2" s="2">
         <v>2</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="X2" s="2">
+      <c r="Y2" s="2">
         <v>1000</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AC2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="2">
         <v>100</v>
       </c>
-      <c r="AD2" s="2">
+      <c r="AE2" s="2">
         <v>2</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AG2" s="2">
         <v>76</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AH2" s="2">
         <v>240</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AK2" s="2">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2025</v>
       </c>
@@ -1133,102 +1145,105 @@
         <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>150</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>125</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>200</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="2">
+      <c r="M3" s="2">
         <v>230</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>16</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="2">
+      <c r="Q3" s="2">
         <v>1000</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="U3" s="2">
-        <v>2</v>
       </c>
       <c r="V3" s="2">
         <v>2</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="W3" s="2">
+        <v>2</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="X3" s="2">
+      <c r="Y3" s="2">
         <v>1000</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>1</v>
       </c>
       <c r="AB3" s="2">
         <v>1</v>
       </c>
       <c r="AC3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="2">
         <v>100</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AE3" s="2">
         <v>4</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AG3" s="2">
         <v>99</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AH3" s="2">
         <v>330</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AK3" s="2">
         <v>2.5</v>
       </c>
     </row>
@@ -1248,131 +1263,131 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="49.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="32.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="49.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="str">
-        <f>_xlfn.CONCAT(SPEC!B2,"_",SPEC!C2,"_",SPEC!D2,"_",SPEC!G2,"_",SPEC!I2)</f>
+      <c r="A2" s="2" t="str">
+        <f>_xlfn.CONCAT(SPEC!B2,"_",SPEC!C2,"_",SPEC!E2,"_",SPEC!H2,"_",SPEC!J2)</f>
         <v>GBT_GAMING A16 PRO_C7 240H_RTX5080_115W</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>1947</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>13908</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>13235</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>113</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>752</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>755</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>66.599999999999994</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>39.799999999999997</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>8436</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>9366</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>14214</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="2">
         <v>12241</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="str">
-        <f>_xlfn.CONCAT(SPEC!B3,"_",SPEC!C3,"_",SPEC!D3,"_",SPEC!G3,"_",SPEC!I3)</f>
+      <c r="A3" s="2" t="str">
+        <f>_xlfn.CONCAT(SPEC!B3,"_",SPEC!C3,"_",SPEC!E3,"_",SPEC!H3,"_",SPEC!J3)</f>
         <v>GBT_AORUS MASTER 16_U9 275HX_RTX5090_175W</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>2243</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>37029</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>35236</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>137</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>2084</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>2057</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>119.6</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>104.6</v>
       </c>
     </row>
@@ -1423,7 +1438,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="str">
-        <f>_xlfn.CONCAT(SPEC!B2,"_",SPEC!C2,"_",SPEC!D2,"_",SPEC!G2,"_",SPEC!I2)</f>
+        <f>_xlfn.CONCAT(SPEC!B2,"_",SPEC!C2,"_",SPEC!E2,"_",SPEC!H2,"_",SPEC!J2)</f>
         <v>GBT_GAMING A16 PRO_C7 240H_RTX5080_115W</v>
       </c>
       <c r="B2" s="2">
@@ -1444,7 +1459,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="str">
-        <f>_xlfn.CONCAT(SPEC!B3,"_",SPEC!C3,"_",SPEC!D3,"_",SPEC!G3,"_",SPEC!I3)</f>
+        <f>_xlfn.CONCAT(SPEC!B3,"_",SPEC!C3,"_",SPEC!E3,"_",SPEC!H3,"_",SPEC!J3)</f>
         <v>GBT_AORUS MASTER 16_U9 275HX_RTX5090_175W</v>
       </c>
       <c r="B3" s="2">
@@ -1550,7 +1565,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="str">
-        <f>_xlfn.CONCAT(SPEC!B2,"_",SPEC!C2,"_",SPEC!D2,"_",SPEC!G2,"_",SPEC!I2)</f>
+        <f>_xlfn.CONCAT(SPEC!B2,"_",SPEC!C2,"_",SPEC!E2,"_",SPEC!H2,"_",SPEC!J2)</f>
         <v>GBT_GAMING A16 PRO_C7 240H_RTX5080_115W</v>
       </c>
       <c r="B2" s="1">
@@ -1601,7 +1616,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="str">
-        <f>_xlfn.CONCAT(SPEC!B3,"_",SPEC!C3,"_",SPEC!D3,"_",SPEC!G3,"_",SPEC!I3)</f>
+        <f>_xlfn.CONCAT(SPEC!B3,"_",SPEC!C3,"_",SPEC!E3,"_",SPEC!H3,"_",SPEC!J3)</f>
         <v>GBT_AORUS MASTER 16_U9 275HX_RTX5090_175W</v>
       </c>
       <c r="B3" s="1">
@@ -1737,7 +1752,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="str">
-        <f>_xlfn.CONCAT(SPEC!B2,"_",SPEC!C2,"_",SPEC!D2,"_",SPEC!G2,"_",SPEC!I2)</f>
+        <f>_xlfn.CONCAT(SPEC!B2,"_",SPEC!C2,"_",SPEC!E2,"_",SPEC!H2,"_",SPEC!J2)</f>
         <v>GBT_GAMING A16 PRO_C7 240H_RTX5080_115W</v>
       </c>
       <c r="B2" s="1">
@@ -1788,7 +1803,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="str">
-        <f>_xlfn.CONCAT(SPEC!B3,"_",SPEC!C3,"_",SPEC!D3,"_",SPEC!G3,"_",SPEC!I3)</f>
+        <f>_xlfn.CONCAT(SPEC!B3,"_",SPEC!C3,"_",SPEC!E3,"_",SPEC!H3,"_",SPEC!J3)</f>
         <v>GBT_AORUS MASTER 16_U9 275HX_RTX5090_175W</v>
       </c>
       <c r="B3" s="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.huang\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C417E3-9BAC-4964-9AD8-25AAA5C1724E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0484517F-B370-4331-95E5-454E6BD285A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" firstSheet="1" activeTab="4" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="SPEC" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="102">
   <si>
     <t>Brand</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,20 +488,65 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -510,7 +555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -526,11 +571,66 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -860,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AK4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1247,6 +1347,119 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="2">
+        <v>150</v>
+      </c>
+      <c r="G4" s="2">
+        <v>125</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="2">
+        <v>200</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="2">
+        <v>230</v>
+      </c>
+      <c r="N4" s="2">
+        <v>16</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="2">
+        <v>2</v>
+      </c>
+      <c r="W4" s="2">
+        <v>2</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>99</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>330</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1255,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFEAC08-C68E-4DC7-8960-5E0970DAA788}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M30" activeCellId="1" sqref="J4:M4 M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1390,6 +1603,60 @@
       <c r="I3" s="4">
         <v>104.6</v>
       </c>
+      <c r="J3" s="2">
+        <v>10385</v>
+      </c>
+      <c r="K3" s="2">
+        <v>10699</v>
+      </c>
+      <c r="L3" s="2">
+        <v>15056</v>
+      </c>
+      <c r="M3" s="2">
+        <v>18867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="str">
+        <f>_xlfn.CONCAT(SPEC!B4,"_",SPEC!C4,"_",SPEC!E4,"_",SPEC!H4,"_",SPEC!J4)</f>
+        <v>GBT_AORUS MASTER 16_U9 275HX_RTX5080_175W</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2247</v>
+      </c>
+      <c r="C4" s="6">
+        <v>36476</v>
+      </c>
+      <c r="D4" s="6">
+        <v>33807</v>
+      </c>
+      <c r="E4" s="6">
+        <v>137</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2027</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2015</v>
+      </c>
+      <c r="H4" s="2">
+        <v>117</v>
+      </c>
+      <c r="I4" s="2">
+        <v>102</v>
+      </c>
+      <c r="J4" s="2">
+        <v>10385</v>
+      </c>
+      <c r="K4" s="2">
+        <v>10699</v>
+      </c>
+      <c r="L4" s="2">
+        <v>15056</v>
+      </c>
+      <c r="M4" s="2">
+        <v>18867</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1399,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAE2845-E5DA-4A2F-AF36-B0EED8E1A7B7}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1478,6 +1745,27 @@
         <v>11769</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="str">
+        <f>_xlfn.CONCAT(SPEC!B4,"_",SPEC!C4,"_",SPEC!E4,"_",SPEC!H4,"_",SPEC!J4)</f>
+        <v>GBT_AORUS MASTER 16_U9 275HX_RTX5080_175W</v>
+      </c>
+      <c r="B4" s="5">
+        <v>49861</v>
+      </c>
+      <c r="C4" s="5">
+        <v>28562</v>
+      </c>
+      <c r="D4" s="5">
+        <v>13587</v>
+      </c>
+      <c r="E4" s="5">
+        <v>21999</v>
+      </c>
+      <c r="F4" s="5">
+        <v>10614</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1486,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B9D477-4E1C-4279-9EC4-F5803BA796EC}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:P3"/>
+      <selection activeCell="B4" sqref="B4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1665,18 +1953,80 @@
         <v>386</v>
       </c>
     </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="str">
+        <f>_xlfn.CONCAT(SPEC!B4,"_",SPEC!C4,"_",SPEC!E4,"_",SPEC!H4,"_",SPEC!J4)</f>
+        <v>GBT_AORUS MASTER 16_U9 275HX_RTX5080_175W</v>
+      </c>
+      <c r="B4" s="7">
+        <v>157.81</v>
+      </c>
+      <c r="C4" s="7">
+        <v>183</v>
+      </c>
+      <c r="D4" s="7">
+        <v>214</v>
+      </c>
+      <c r="E4" s="7">
+        <v>239.5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>108.44</v>
+      </c>
+      <c r="G4" s="7">
+        <v>271.39</v>
+      </c>
+      <c r="H4" s="7">
+        <v>223</v>
+      </c>
+      <c r="I4" s="7">
+        <v>128</v>
+      </c>
+      <c r="J4" s="7">
+        <v>102</v>
+      </c>
+      <c r="K4" s="7">
+        <v>215.7</v>
+      </c>
+      <c r="L4" s="7">
+        <v>121.69</v>
+      </c>
+      <c r="M4" s="7">
+        <v>127</v>
+      </c>
+      <c r="N4" s="7">
+        <v>147.6</v>
+      </c>
+      <c r="O4" s="7">
+        <v>96.79</v>
+      </c>
+      <c r="P4" s="7">
+        <v>384</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B4:P4">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+      <formula>119</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+      <formula>120</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621FDEC-049F-42F4-9153-BBF6657B44B9}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1852,8 +2202,70 @@
         <v>330</v>
       </c>
     </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="str">
+        <f>_xlfn.CONCAT(SPEC!B4,"_",SPEC!C4,"_",SPEC!E4,"_",SPEC!H4,"_",SPEC!J4)</f>
+        <v>GBT_AORUS MASTER 16_U9 275HX_RTX5080_175W</v>
+      </c>
+      <c r="B4" s="8">
+        <v>116.84</v>
+      </c>
+      <c r="C4" s="8">
+        <v>152</v>
+      </c>
+      <c r="D4" s="8">
+        <v>159.6</v>
+      </c>
+      <c r="E4" s="8">
+        <v>173.6</v>
+      </c>
+      <c r="F4" s="8">
+        <v>89.54</v>
+      </c>
+      <c r="G4" s="8">
+        <v>215.87</v>
+      </c>
+      <c r="H4" s="8">
+        <v>178</v>
+      </c>
+      <c r="I4" s="8">
+        <v>114</v>
+      </c>
+      <c r="J4" s="8">
+        <v>75</v>
+      </c>
+      <c r="K4" s="8">
+        <v>201</v>
+      </c>
+      <c r="L4" s="8">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="M4" s="8">
+        <v>102</v>
+      </c>
+      <c r="N4" s="8">
+        <v>117</v>
+      </c>
+      <c r="O4" s="8">
+        <v>88.11</v>
+      </c>
+      <c r="P4" s="8">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B4:P4">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>119</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>120</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.huang\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0484517F-B370-4331-95E5-454E6BD285A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC03E29-E717-40CA-8824-019A4378C447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" firstSheet="1" activeTab="4" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="4" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="SPEC" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
   <si>
     <t>Brand</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,6 +446,22 @@
   </si>
   <si>
     <t>Intel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AORUS Elite16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX5070</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDDR7 8GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20~26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,7 +571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,11 +599,56 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -960,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
-  <dimension ref="A1:AK4"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1460,6 +1521,119 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="2">
+        <v>150</v>
+      </c>
+      <c r="G5" s="2">
+        <v>125</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="2">
+        <v>200</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="2">
+        <v>170</v>
+      </c>
+      <c r="N5" s="2">
+        <v>16</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>400</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" s="2">
+        <v>2</v>
+      </c>
+      <c r="W5" s="2">
+        <v>2</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>100</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>99</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>240</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1468,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFEAC08-C68E-4DC7-8960-5E0970DAA788}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M30" activeCellId="1" sqref="J4:M4 M30"/>
+      <selection activeCell="M4" sqref="J4:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1645,17 +1819,35 @@
       <c r="I4" s="2">
         <v>102</v>
       </c>
-      <c r="J4" s="2">
-        <v>10385</v>
-      </c>
-      <c r="K4" s="2">
-        <v>10699</v>
-      </c>
-      <c r="L4" s="2">
-        <v>15056</v>
-      </c>
-      <c r="M4" s="2">
-        <v>18867</v>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="str">
+        <f>_xlfn.CONCAT(SPEC!B5,"_",SPEC!C5,"_",SPEC!E5,"_",SPEC!H5,"_",SPEC!J5)</f>
+        <v>GBT_AORUS Elite16_U9 275HX_RTX5070_115W</v>
+      </c>
+      <c r="B5" s="6">
+        <v>2200</v>
+      </c>
+      <c r="C5" s="6">
+        <v>36986</v>
+      </c>
+      <c r="D5" s="6">
+        <v>34345</v>
+      </c>
+      <c r="E5" s="6">
+        <v>137</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2084</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2057</v>
+      </c>
+      <c r="H5" s="2">
+        <v>117</v>
+      </c>
+      <c r="I5" s="2">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1666,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAE2845-E5DA-4A2F-AF36-B0EED8E1A7B7}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1766,6 +1958,27 @@
         <v>10614</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="str">
+        <f>_xlfn.CONCAT(SPEC!B5,"_",SPEC!C5,"_",SPEC!E5,"_",SPEC!H5,"_",SPEC!J5)</f>
+        <v>GBT_AORUS Elite16_U9 275HX_RTX5070_115W</v>
+      </c>
+      <c r="B5" s="5">
+        <v>35460</v>
+      </c>
+      <c r="C5" s="5">
+        <v>17081</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7943</v>
+      </c>
+      <c r="E5" s="5">
+        <v>14657</v>
+      </c>
+      <c r="F5" s="5">
+        <v>6513</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1774,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B9D477-4E1C-4279-9EC4-F5803BA796EC}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:P4"/>
+      <selection activeCell="B5" sqref="B5:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -2004,9 +2217,71 @@
         <v>384</v>
       </c>
     </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="str">
+        <f>_xlfn.CONCAT(SPEC!B5,"_",SPEC!C5,"_",SPEC!E5,"_",SPEC!H5,"_",SPEC!J5)</f>
+        <v>GBT_AORUS Elite16_U9 275HX_RTX5070_115W</v>
+      </c>
+      <c r="B5" s="9">
+        <v>132.15</v>
+      </c>
+      <c r="C5" s="9">
+        <v>136</v>
+      </c>
+      <c r="D5" s="9">
+        <v>166</v>
+      </c>
+      <c r="E5" s="9">
+        <v>197.6</v>
+      </c>
+      <c r="F5" s="9">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="G5" s="9">
+        <v>224.04</v>
+      </c>
+      <c r="H5" s="9">
+        <v>192</v>
+      </c>
+      <c r="I5" s="9">
+        <v>104</v>
+      </c>
+      <c r="J5" s="9">
+        <v>71</v>
+      </c>
+      <c r="K5" s="9">
+        <v>242.8</v>
+      </c>
+      <c r="L5" s="9">
+        <v>84.18</v>
+      </c>
+      <c r="M5" s="9">
+        <v>92</v>
+      </c>
+      <c r="N5" s="9">
+        <v>103.62</v>
+      </c>
+      <c r="O5" s="9">
+        <v>60.92</v>
+      </c>
+      <c r="P5" s="9">
+        <v>307</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:P4">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
+      <formula>119</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
+      <formula>120</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:P5">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>119</formula>
     </cfRule>
@@ -2023,10 +2298,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621FDEC-049F-42F4-9153-BBF6657B44B9}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -2253,9 +2528,71 @@
         <v>296</v>
       </c>
     </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="str">
+        <f>_xlfn.CONCAT(SPEC!B5,"_",SPEC!C5,"_",SPEC!E5,"_",SPEC!H5,"_",SPEC!J5)</f>
+        <v>GBT_AORUS Elite16_U9 275HX_RTX5070_115W</v>
+      </c>
+      <c r="B5" s="8">
+        <v>77.489999999999995</v>
+      </c>
+      <c r="C5" s="8">
+        <v>106</v>
+      </c>
+      <c r="D5" s="8">
+        <v>111.7</v>
+      </c>
+      <c r="E5" s="8">
+        <v>115.4</v>
+      </c>
+      <c r="F5" s="8">
+        <v>64</v>
+      </c>
+      <c r="G5" s="8">
+        <v>136.94</v>
+      </c>
+      <c r="H5" s="8">
+        <v>114</v>
+      </c>
+      <c r="I5" s="8">
+        <v>82</v>
+      </c>
+      <c r="J5" s="8">
+        <v>40</v>
+      </c>
+      <c r="K5" s="8">
+        <v>162.30000000000001</v>
+      </c>
+      <c r="L5" s="8">
+        <v>20.86</v>
+      </c>
+      <c r="M5" s="8">
+        <v>68</v>
+      </c>
+      <c r="N5" s="8">
+        <v>76.260000000000005</v>
+      </c>
+      <c r="O5" s="8">
+        <v>56.46</v>
+      </c>
+      <c r="P5" s="8">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:P4">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+      <formula>119</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
+      <formula>120</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:P5">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>119</formula>
     </cfRule>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.huang\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC03E29-E717-40CA-8824-019A4378C447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9767943D-A5DF-4F2D-B2DF-4748BE3A0242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="4" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
+    <workbookView xWindow="2280" yWindow="750" windowWidth="23160" windowHeight="14530" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="SPEC" sheetId="4" r:id="rId1"/>
@@ -606,49 +606,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1023,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
   <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AK6" sqref="AK6"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -1613,7 +1571,7 @@
         <v>100</v>
       </c>
       <c r="AE5" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF5" s="2" t="s">
         <v>42</v>
@@ -2270,18 +2228,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B4:P4">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
-      <formula>119</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="greaterThan">
-      <formula>120</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
-      <formula>60</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:P5">
+  <conditionalFormatting sqref="B4:P5">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>119</formula>
     </cfRule>
@@ -2300,7 +2247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621FDEC-049F-42F4-9153-BBF6657B44B9}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2581,18 +2528,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B4:P4">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
-      <formula>119</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
-      <formula>120</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
-      <formula>60</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:P5">
+  <conditionalFormatting sqref="B4:P5">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>119</formula>
     </cfRule>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.huang\Desktop\page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF1C542-0993-48D0-8530-A946E03FF7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA101A8-903A-46F7-A641-519517DDADD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="SPEC" sheetId="4" r:id="rId1"/>
@@ -19,21 +19,10 @@
     <sheet name="FPS_FHD" sheetId="3" r:id="rId4"/>
     <sheet name="FPS_QHD" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -425,10 +414,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CPU Brand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Intel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -550,6 +535,10 @@
   </si>
   <si>
     <t>1920x1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Processor Brand</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +624,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -969,11 +958,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.453125" style="3" bestFit="1" customWidth="1"/>
@@ -1023,7 +1012,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -1059,10 +1048,10 @@
         <v>77</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>8</v>
@@ -1136,7 +1125,7 @@
         <v>28</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>29</v>
@@ -1246,7 +1235,7 @@
         <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>80</v>
@@ -1356,7 +1345,7 @@
         <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>80</v>
@@ -1463,10 +1452,10 @@
         <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>80</v>
@@ -1478,10 +1467,10 @@
         <v>125</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>43</v>
@@ -1562,7 +1551,7 @@
         <v>93</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK5" s="3">
         <v>2.2999999999999998</v>
@@ -1573,13 +1562,13 @@
         <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="E6" s="3">
         <v>82</v>
@@ -1588,13 +1577,13 @@
         <v>70</v>
       </c>
       <c r="G6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>36</v>
@@ -1624,7 +1613,7 @@
         <v>36</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U6" s="3" t="s">
         <v>36</v>
@@ -1683,13 +1672,13 @@
         <v>26</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="E7" s="3">
         <v>82</v>
@@ -1698,13 +1687,13 @@
         <v>70</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>36</v>
@@ -1734,7 +1723,7 @@
         <v>36</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U7" s="3" t="s">
         <v>36</v>
@@ -1793,13 +1782,13 @@
         <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E8" s="3">
         <v>80</v>
@@ -1808,13 +1797,13 @@
         <v>50</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>36</v>
@@ -1889,10 +1878,10 @@
         <v>150</v>
       </c>
       <c r="AI8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="AJ8" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="AK8" s="3">
         <v>2.8</v>
@@ -1903,13 +1892,13 @@
         <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="D9" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E9" s="3">
         <v>80</v>
@@ -1918,13 +1907,13 @@
         <v>50</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>36</v>
@@ -1942,7 +1931,7 @@
         <v>78</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
@@ -1999,10 +1988,10 @@
         <v>150</v>
       </c>
       <c r="AI9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="AJ9" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="AK9" s="3">
         <v>2.8</v>
@@ -2010,16 +1999,16 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E10" s="3">
         <v>175</v>
@@ -2028,10 +2017,10 @@
         <v>140</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>43</v>
@@ -2085,7 +2074,7 @@
         <v>89</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB10" s="3" t="s">
         <v>36</v>
@@ -2109,10 +2098,10 @@
         <v>280</v>
       </c>
       <c r="AI10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="AJ10" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="AK10" s="3">
         <v>2.65</v>
@@ -2120,16 +2109,16 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="E11" s="3">
         <v>90</v>
@@ -2138,10 +2127,10 @@
         <v>90</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>43</v>
@@ -2195,7 +2184,7 @@
         <v>37</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB11" s="3" t="s">
         <v>36</v>
@@ -2219,10 +2208,10 @@
         <v>280</v>
       </c>
       <c r="AI11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ11" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="AK11" s="3">
         <v>2.2999999999999998</v>
@@ -2242,7 +2231,7 @@
       <selection activeCell="B11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
@@ -2426,7 +2415,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>80</v>
@@ -2458,10 +2447,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="C6" s="2">
         <v>1829</v>
@@ -2490,10 +2479,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="C7" s="2">
         <v>1834</v>
@@ -2522,10 +2511,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2">
         <v>1790</v>
@@ -2554,10 +2543,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2">
         <v>1759</v>
@@ -2586,10 +2575,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="C10" s="3">
         <v>2140</v>
@@ -2600,10 +2589,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="3">
         <v>2165</v>
@@ -2622,11 +2611,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAE2845-E5DA-4A2F-AF36-B0EED8E1A7B7}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.36328125" style="3" bestFit="1" customWidth="1"/>
@@ -2745,10 +2734,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
@@ -2771,13 +2760,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="5">
         <v>30785</v>
@@ -2797,13 +2786,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="5">
         <v>29174</v>
@@ -2823,13 +2812,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="5">
         <v>30201</v>
@@ -2849,13 +2838,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" s="5">
         <v>26129</v>
@@ -2875,10 +2864,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>43</v>
@@ -2889,10 +2878,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>43</v>
@@ -2915,7 +2904,7 @@
       <selection activeCell="D1" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
@@ -3132,13 +3121,13 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>43</v>
@@ -3191,16 +3180,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E6" s="2">
         <v>81.08</v>
@@ -3250,44 +3239,44 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3304,7 +3293,7 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
@@ -3521,13 +3510,13 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>43</v>
@@ -3580,16 +3569,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="E6" s="2">
         <v>65.78</v>
@@ -3639,55 +3628,55 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>43</v>
@@ -3701,13 +3690,13 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>43</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G634JYR\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7595C05-45AC-4FC2-A74C-BE3F627184F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EE2750-E9EE-4E6D-8E18-A5C7E785B9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="SPEC" sheetId="4" r:id="rId1"/>
@@ -190,114 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R23/1T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R23/nT 1 run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R23/nT 10 mins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R24/1T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R24/nT 1 run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R24/nT 10 mins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FHD Benchmark/X264</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FHD Benchmark/X265</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCMark10/Overall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCMark10/Essentials</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCMark10/Productivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PCMark10/Digital Content Creation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cyberpunk 2077 (2022)/Ultra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forza Horizon 5 (2021)/Extreme</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gears 5 (2019)/Ultra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gears of War Reloaded (2025)/Ultra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Red Dead Redemption 2 (2019)/Ultra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rise of the Tomb Raider (2015)/Very High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shadow of the Tomb Raider (2018)/Highest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assassin's Creed Odyssey (2018)/Ultra High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Black Myth: Wukong (2024)/High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CS2 (2023)/Very High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOOM: The Dark Ages  (Hebeth) (2025)/Ultra Nightmare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1-24 (2024)/Ultra High</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Metro Exodus (2019)/Ultra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster Hunter Wilds Benchmark (2025)/Ultra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R6 Rainbow Six Siege (2015)/Ultra</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PL2/sPPT(W)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,21 +370,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FireStrike/GPU</t>
-  </si>
-  <si>
-    <t>FireStrikeExtreme/GPU</t>
-  </si>
-  <si>
-    <t>FireStrikeUltra/GPU</t>
-  </si>
-  <si>
-    <t>TimeSpy/GPU</t>
-  </si>
-  <si>
-    <t>TimeSpyExtreme/GPU</t>
-  </si>
-  <si>
     <t>Brand Model Name</t>
   </si>
   <si>
@@ -512,6 +389,134 @@
   </si>
   <si>
     <t>ROG Strix G16 G615LM</t>
+  </si>
+  <si>
+    <t>R23 [1T]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R23 [nT] 1 run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R23 [nT] 10 mins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R24 [1T]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R24 [nT] 1 run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R24 [nT] 10 mins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FHD Benchmark [X264]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FHD Benchmark [X265]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCMark10 [Overall]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCMark10 [Essentials]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCMark10 [Productivity]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCMark10 [Digital Content Creation]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireStrike [GPU]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireStrike Extreme [GPU]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireStrike Ultra [GPU]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeSpy [GPU]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeSpy Extreme [GPU]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyberpunk 2077 [Ultra]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forza Horizon 5 [Extreme]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gears 5[Ultra]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gears of War Reloaded [Ultra]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red Dead Redemption 2 [Ultra]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rise of the Tomb Raider [Very High]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow of the Tomb Raider[Highest]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assassin's Creed Odyssey [Ultra High]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black Myth: Wukong [High]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS2 [Very High]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOOM: The Dark Ages  (Hebeth) [Ultra Nightmare]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1-24 [Ultra High]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metro Exodus [Ultra]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster Hunter Wilds Benchmark [Ultra]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R6 Rainbow Six Siege [Ultra]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -519,28 +524,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="165" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -548,13 +553,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -588,7 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -600,7 +605,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -943,59 +948,59 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.53515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.69140625" style="1"/>
+    <col min="32" max="32" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>37</v>
@@ -1022,13 +1027,13 @@
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>7</v>
@@ -1085,21 +1090,21 @@
         <v>23</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1132,7 +1137,7 @@
         <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>28</v>
@@ -1159,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="X2" s="1">
         <v>1000</v>
@@ -1192,24 +1197,24 @@
         <v>240</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="AJ2" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1">
         <v>150</v>
@@ -1218,13 +1223,13 @@
         <v>125</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I3" s="1">
         <v>200</v>
@@ -1239,7 +1244,7 @@
         <v>16</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>28</v>
@@ -1254,7 +1259,7 @@
         <v>29</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>32</v>
@@ -1266,16 +1271,16 @@
         <v>2</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="X3" s="1">
         <v>1000</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="AA3" s="1">
         <v>1</v>
@@ -1299,24 +1304,24 @@
         <v>330</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="AJ3" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -1331,7 +1336,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I4" s="1">
         <v>200</v>
@@ -1346,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>28</v>
@@ -1361,7 +1366,7 @@
         <v>29</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>32</v>
@@ -1373,16 +1378,16 @@
         <v>2</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="X4" s="1">
         <v>1000</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="AA4" s="1">
         <v>1</v>
@@ -1406,24 +1411,24 @@
         <v>330</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="AJ4" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1">
         <v>150</v>
@@ -1432,10 +1437,10 @@
         <v>125</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>39</v>
@@ -1453,7 +1458,7 @@
         <v>16</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>28</v>
@@ -1468,7 +1473,7 @@
         <v>29</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>32</v>
@@ -1480,16 +1485,16 @@
         <v>2</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="X5" s="1">
         <v>1000</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="AA5" s="1">
         <v>1</v>
@@ -1513,24 +1518,24 @@
         <v>240</v>
       </c>
       <c r="AH5" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="AJ5" s="1">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1">
         <v>82</v>
@@ -1539,13 +1544,13 @@
         <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>32</v>
@@ -1560,7 +1565,7 @@
         <v>16</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>28</v>
@@ -1575,7 +1580,7 @@
         <v>32</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>32</v>
@@ -1587,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="X6" s="1">
         <v>1000</v>
@@ -1620,24 +1625,24 @@
         <v>150</v>
       </c>
       <c r="AH6" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="AJ6" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1">
         <v>82</v>
@@ -1646,13 +1651,13 @@
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>32</v>
@@ -1667,7 +1672,7 @@
         <v>16</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>28</v>
@@ -1682,7 +1687,7 @@
         <v>32</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>32</v>
@@ -1694,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="X7" s="1">
         <v>1000</v>
@@ -1727,24 +1732,24 @@
         <v>150</v>
       </c>
       <c r="AH7" s="1" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="AJ7" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D8" s="1">
         <v>80</v>
@@ -1753,13 +1758,13 @@
         <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>32</v>
@@ -1774,7 +1779,7 @@
         <v>18</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>28</v>
@@ -1789,7 +1794,7 @@
         <v>32</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>32</v>
@@ -1801,7 +1806,7 @@
         <v>2</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="X8" s="1">
         <v>1000</v>
@@ -1834,24 +1839,24 @@
         <v>150</v>
       </c>
       <c r="AH8" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="AI8" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="AJ8" s="1">
         <v>2.8</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D9" s="1">
         <v>80</v>
@@ -1860,13 +1865,13 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>32</v>
@@ -1881,10 +1886,10 @@
         <v>18</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="P9" s="1">
         <v>300</v>
@@ -1896,7 +1901,7 @@
         <v>32</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>32</v>
@@ -1908,7 +1913,7 @@
         <v>2</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="X9" s="1">
         <v>1000</v>
@@ -1941,24 +1946,24 @@
         <v>150</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="AJ9" s="1">
         <v>2.8</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1">
         <v>175</v>
@@ -1967,10 +1972,10 @@
         <v>140</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>39</v>
@@ -1988,7 +1993,7 @@
         <v>16</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>28</v>
@@ -2003,7 +2008,7 @@
         <v>29</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>32</v>
@@ -2015,16 +2020,16 @@
         <v>2</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="X10" s="1">
         <v>1000</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="AA10" s="1" t="s">
         <v>32</v>
@@ -2048,24 +2053,24 @@
         <v>280</v>
       </c>
       <c r="AH10" s="1" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="AI10" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AJ10" s="1">
         <v>2.65</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D11" s="1">
         <v>90</v>
@@ -2074,10 +2079,10 @@
         <v>90</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>39</v>
@@ -2095,7 +2100,7 @@
         <v>16</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>28</v>
@@ -2110,7 +2115,7 @@
         <v>29</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>32</v>
@@ -2122,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="X11" s="1">
         <v>1000</v>
@@ -2131,7 +2136,7 @@
         <v>33</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="AA11" s="1" t="s">
         <v>32</v>
@@ -2155,10 +2160,10 @@
         <v>280</v>
       </c>
       <c r="AH11" s="1" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="AJ11" s="1">
         <v>2.2999999999999998</v>
@@ -2175,74 +2180,74 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.69140625" style="1"/>
+    <col min="1" max="1" width="25.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -2284,12 +2289,12 @@
         <v>12241</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>2243</v>
@@ -2328,12 +2333,12 @@
         <v>18867</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2">
         <v>2247</v>
@@ -2360,12 +2365,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2">
         <v>2200</v>
@@ -2392,12 +2397,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2">
         <v>1829</v>
@@ -2424,12 +2429,12 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2">
         <v>1834</v>
@@ -2456,12 +2461,12 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2">
         <v>1790</v>
@@ -2488,12 +2493,12 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2">
         <v>1759</v>
@@ -2520,12 +2525,12 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1">
         <v>2140</v>
@@ -2534,12 +2539,12 @@
         <v>31375</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1">
         <v>2165</v>
@@ -2559,25 +2564,25 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="16" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.07421875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.61328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.84375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.3046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.84375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.07421875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.69140625" style="3"/>
+    <col min="1" max="1" width="25.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="7.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -2586,24 +2591,24 @@
         <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>26</v>
@@ -2627,15 +2632,15 @@
         <v>8041</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3">
         <v>51587</v>
@@ -2653,15 +2658,15 @@
         <v>11769</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D4" s="5">
         <v>49861</v>
@@ -2679,12 +2684,12 @@
         <v>10614</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>39</v>
@@ -2705,15 +2710,15 @@
         <v>6513</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5">
         <v>30785</v>
@@ -2731,15 +2736,15 @@
         <v>5690</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D7" s="5">
         <v>29174</v>
@@ -2757,15 +2762,15 @@
         <v>5084</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5">
         <v>30201</v>
@@ -2783,15 +2788,15 @@
         <v>5048</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D9" s="5">
         <v>26129</v>
@@ -2809,12 +2814,12 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>39</v>
@@ -2823,12 +2828,12 @@
         <v>12657</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>39</v>
@@ -2848,36 +2853,35 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.69140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.23046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.15234375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.53515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.53515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.84375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.61328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.3046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.61328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.84375" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.3046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.53515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.3046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.84375" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.69140625" style="6"/>
+    <col min="1" max="1" width="25.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="34.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="25.54296875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2889,54 +2893,54 @@
         <v>38</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -2948,18 +2952,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E3" s="6">
         <v>164.15</v>
@@ -3007,18 +3011,18 @@
         <v>386</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2">
         <v>157.81</v>
@@ -3066,15 +3070,15 @@
         <v>384</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>39</v>
@@ -3125,18 +3129,18 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2">
         <v>81.08</v>
@@ -3184,46 +3188,46 @@
         <v>231</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3236,35 +3240,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621FDEC-049F-42F4-9153-BBF6657B44B9}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.69140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.23046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.15234375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.53515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.53515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.84375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.61328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.3046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.61328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.84375" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.3046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.53515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.3046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.84375" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.69140625" style="6"/>
+    <col min="1" max="1" width="25.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="34.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="20.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3276,54 +3281,54 @@
         <v>38</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -3335,18 +3340,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E3" s="6">
         <v>125.13</v>
@@ -3394,18 +3399,18 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2">
         <v>116.84</v>
@@ -3453,15 +3458,15 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>39</v>
@@ -3512,18 +3517,18 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="E6" s="2">
         <v>65.78</v>
@@ -3571,57 +3576,57 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="B10" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>39</v>
@@ -3633,15 +3638,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>39</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G634JYR\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G634JYR\Desktop\benchmark-site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EE2750-E9EE-4E6D-8E18-A5C7E785B9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22906C34-644B-491B-8DFB-E43C97F50238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="4" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="SPEC" sheetId="4" r:id="rId1"/>
@@ -467,10 +467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gears 5[Ultra]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gears of War Reloaded [Ultra]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,10 +479,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shadow of the Tomb Raider[Highest]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assassin's Creed Odyssey [Ultra High]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -516,6 +508,14 @@
   </si>
   <si>
     <t>R6 Rainbow Six Siege [Ultra]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gears 5 [Ultra]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow of the Tomb Raider [Highest]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -944,7 +944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2853,7 +2853,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.54296875" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -2899,43 +2899,43 @@
         <v>110</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
@@ -3240,8 +3240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621FDEC-049F-42F4-9153-BBF6657B44B9}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -3287,43 +3287,43 @@
         <v>110</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D17753-0D4F-4F12-A363-1054ECFD3917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6266FD-9508-4DFA-8406-193374DBE320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="162">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -557,6 +557,78 @@
   </si>
   <si>
     <t>399x294</t>
+  </si>
+  <si>
+    <t>XGM 蛟龍16Pro</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>R9 7845HX</t>
+  </si>
+  <si>
+    <t>DDR5 5200MHz</t>
+  </si>
+  <si>
+    <t>356.68×253.8</t>
+  </si>
+  <si>
+    <t>MSI Crosshair 16HX</t>
+  </si>
+  <si>
+    <t>R9 7945HX</t>
+  </si>
+  <si>
+    <t>3A1C</t>
+  </si>
+  <si>
+    <t>WIFI 6E/BT 5.3</t>
+  </si>
+  <si>
+    <t>359x266.4</t>
+  </si>
+  <si>
+    <t>XGM 耀世16Ultra</t>
+  </si>
+  <si>
+    <t>356.6x254.7</t>
+  </si>
+  <si>
+    <t>HP Omen Max 16</t>
+  </si>
+  <si>
+    <t>RTX5070Ti</t>
+  </si>
+  <si>
+    <t>GDDR7 12GB</t>
+  </si>
+  <si>
+    <t>140W</t>
+  </si>
+  <si>
+    <t>356.5x269</t>
+  </si>
+  <si>
+    <t>TUF A14 FA401UM</t>
+  </si>
+  <si>
+    <t>R7 260</t>
+  </si>
+  <si>
+    <t>110W</t>
+  </si>
+  <si>
+    <t>LPDDR5x 7500MHz</t>
+  </si>
+  <si>
+    <t>21.8~27.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9~19.9 </t>
+  </si>
+  <si>
+    <t>311x227</t>
   </si>
 </sst>
 </file>
@@ -626,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,6 +719,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -982,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -995,28 +1070,28 @@
     <col min="3" max="3" width="9.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.4609375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.53515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.3046875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.69140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.53515625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.23046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.07421875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.23046875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.61328125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.4609375" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.765625" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.765625" style="1" bestFit="1" customWidth="1"/>
@@ -2526,18 +2601,554 @@
         <v>3</v>
       </c>
     </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D15" s="1">
+        <v>140</v>
+      </c>
+      <c r="E15" s="1">
+        <v>120</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="1">
+        <v>170</v>
+      </c>
+      <c r="L15" s="1">
+        <v>16</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="1">
+        <v>300</v>
+      </c>
+      <c r="P15" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="1">
+        <v>2</v>
+      </c>
+      <c r="U15" s="1">
+        <v>2</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W15" s="1">
+        <v>1</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>80</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>250</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" s="1">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1">
+        <v>90</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" s="1">
+        <v>170</v>
+      </c>
+      <c r="L16" s="1">
+        <v>16</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="1">
+        <v>240</v>
+      </c>
+      <c r="P16" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" s="1">
+        <v>2</v>
+      </c>
+      <c r="U16" s="1">
+        <v>2</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>90</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>240</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1">
+        <v>210</v>
+      </c>
+      <c r="E17" s="1">
+        <v>140</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="1">
+        <v>200</v>
+      </c>
+      <c r="L17" s="1">
+        <v>16</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="1">
+        <v>300</v>
+      </c>
+      <c r="P17" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" s="1">
+        <v>2</v>
+      </c>
+      <c r="U17" s="1">
+        <v>2</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>80</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>250</v>
+      </c>
+      <c r="AG17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>25.6</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1">
+        <v>160</v>
+      </c>
+      <c r="E18" s="1">
+        <v>140</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="1">
+        <v>205</v>
+      </c>
+      <c r="L18" s="1">
+        <v>16</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="1">
+        <v>240</v>
+      </c>
+      <c r="P18" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" s="1">
+        <v>2</v>
+      </c>
+      <c r="U18" s="1">
+        <v>2</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W18" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>83</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>330</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>22.9</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="1">
+        <v>80</v>
+      </c>
+      <c r="E19" s="1">
+        <v>80</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I19" s="1">
+        <v>50</v>
+      </c>
+      <c r="J19" s="1">
+        <v>100</v>
+      </c>
+      <c r="K19" s="1">
+        <v>125</v>
+      </c>
+      <c r="L19" s="1">
+        <v>14</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="1">
+        <v>165</v>
+      </c>
+      <c r="P19" s="1">
+        <v>400</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>73</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>200</v>
+      </c>
+      <c r="AG19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>1.46</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFEAC08-C68E-4DC7-8960-5E0970DAA788}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="16" x14ac:dyDescent="0.35"/>
@@ -3038,6 +3649,106 @@
         <v>38641</v>
       </c>
     </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1872</v>
+      </c>
+      <c r="G15" s="1">
+        <v>25970</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1936</v>
+      </c>
+      <c r="G16" s="1">
+        <v>31318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2125</v>
+      </c>
+      <c r="G17" s="1">
+        <v>31460</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2095</v>
+      </c>
+      <c r="G18" s="1">
+        <v>34952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1756</v>
+      </c>
+      <c r="G19" s="1">
+        <v>16929</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3046,17 +3757,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAE2845-E5DA-4A2F-AF36-B0EED8E1A7B7}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.15234375" defaultRowHeight="16" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.07421875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.4609375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.07421875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.23046875" style="3" bestFit="1" customWidth="1"/>
@@ -3412,6 +4123,91 @@
         <v>14262</v>
       </c>
     </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="3">
+        <v>13726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="3">
+        <v>13724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="3">
+        <v>12116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="3">
+        <v>17579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="3">
+        <v>12320</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3420,10 +4216,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621FDEC-049F-42F4-9153-BBF6657B44B9}">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3895,6 +4691,106 @@
       </c>
       <c r="K14" s="6">
         <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="6">
+        <v>71</v>
+      </c>
+      <c r="K15" s="6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="6">
+        <v>78</v>
+      </c>
+      <c r="K16" s="6">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="6">
+        <v>65</v>
+      </c>
+      <c r="K17" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="6">
+        <v>119</v>
+      </c>
+      <c r="K18" s="6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="6">
+        <v>60</v>
+      </c>
+      <c r="K19" s="6">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6266FD-9508-4DFA-8406-193374DBE320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3714A832-8840-4F7B-85DA-184341BC958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="165">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -629,6 +629,15 @@
   </si>
   <si>
     <t>311x227</t>
+  </si>
+  <si>
+    <t>TUF F16 FX608LP</t>
+  </si>
+  <si>
+    <t>354x269</t>
+  </si>
+  <si>
+    <t>17.9~27.3</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AI21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2705,7 +2714,7 @@
         <v>24.8</v>
       </c>
       <c r="AI15" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.35">
@@ -3091,7 +3100,7 @@
         <v>30</v>
       </c>
       <c r="U19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>48</v>
@@ -3134,6 +3143,220 @@
       </c>
       <c r="AI19" s="1">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1">
+        <v>135</v>
+      </c>
+      <c r="E20" s="1">
+        <v>90</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="1">
+        <v>50</v>
+      </c>
+      <c r="J20" s="1">
+        <v>100</v>
+      </c>
+      <c r="K20" s="1">
+        <v>170</v>
+      </c>
+      <c r="L20" s="1">
+        <v>16</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O20" s="1">
+        <v>165</v>
+      </c>
+      <c r="P20" s="1">
+        <v>400</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T20" s="1">
+        <v>2</v>
+      </c>
+      <c r="U20" s="1">
+        <v>2</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W20" s="1">
+        <v>1</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>90</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>280</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1">
+        <v>110</v>
+      </c>
+      <c r="E21" s="1">
+        <v>110</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="1">
+        <v>205</v>
+      </c>
+      <c r="L21" s="1">
+        <v>16</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="1">
+        <v>300</v>
+      </c>
+      <c r="P21" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T21" s="1">
+        <v>2</v>
+      </c>
+      <c r="U21" s="1">
+        <v>2</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W21" s="1">
+        <v>1</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>80</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>280</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>2.44</v>
       </c>
     </row>
   </sheetData>
@@ -3145,10 +3368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFEAC08-C68E-4DC7-8960-5E0970DAA788}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="16" x14ac:dyDescent="0.35"/>
@@ -3749,6 +3972,46 @@
         <v>16929</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1959</v>
+      </c>
+      <c r="G20" s="1">
+        <v>27843</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2126</v>
+      </c>
+      <c r="G21" s="1">
+        <v>37992</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3757,10 +4020,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAE2845-E5DA-4A2F-AF36-B0EED8E1A7B7}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.15234375" defaultRowHeight="16" x14ac:dyDescent="0.35"/>
@@ -4208,6 +4471,40 @@
         <v>12320</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="3">
+        <v>14120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="3">
+        <v>17652</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4216,10 +4513,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621FDEC-049F-42F4-9153-BBF6657B44B9}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4793,6 +5090,46 @@
         <v>101</v>
       </c>
     </row>
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="6">
+        <v>76</v>
+      </c>
+      <c r="K20" s="6">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="6">
+        <v>129</v>
+      </c>
+      <c r="K21" s="6">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4804,7 +5141,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.53515625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3714A832-8840-4F7B-85DA-184341BC958A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6E72BF-0B61-493B-BA3B-EB5B1BB4751E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="CPU" sheetId="1" r:id="rId2"/>
     <sheet name="GPU" sheetId="2" r:id="rId3"/>
     <sheet name="FPS_QHD" sheetId="5" r:id="rId4"/>
-    <sheet name="FPS_FHD" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="185">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,10 +270,6 @@
   </si>
   <si>
     <t>20~26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>i7-13620H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -638,6 +633,69 @@
   </si>
   <si>
     <t>17.9~27.3</t>
+  </si>
+  <si>
+    <t>LNV Legion 7i Y9000X</t>
+  </si>
+  <si>
+    <t>LNV Legion Pro 5 R7000P</t>
+  </si>
+  <si>
+    <t>R9 8945HX</t>
+  </si>
+  <si>
+    <t>364.38x268.06</t>
+  </si>
+  <si>
+    <t>21.69~25.95</t>
+  </si>
+  <si>
+    <t>LNV 斗战者 战7000</t>
+  </si>
+  <si>
+    <t>R9 8940HX</t>
+  </si>
+  <si>
+    <t>4A1C</t>
+  </si>
+  <si>
+    <t>WIFI 6/BT 5.2</t>
+  </si>
+  <si>
+    <t>355.6x267.7</t>
+  </si>
+  <si>
+    <t>Lecoo 斗战者 战7000</t>
+  </si>
+  <si>
+    <t>XGM 曠世X</t>
+  </si>
+  <si>
+    <t>i7 13620H</t>
+  </si>
+  <si>
+    <t>i5 13500HX</t>
+  </si>
+  <si>
+    <t>RTX5050</t>
+  </si>
+  <si>
+    <t>357x252</t>
+  </si>
+  <si>
+    <t>LNV Legion Pro 5i Y7000P</t>
+  </si>
+  <si>
+    <t>i9 14900HX</t>
+  </si>
+  <si>
+    <t>HP Omen 16</t>
+  </si>
+  <si>
+    <t>357x269</t>
+  </si>
+  <si>
+    <t>23.8~28.4</t>
   </si>
 </sst>
 </file>
@@ -1066,15 +1124,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
-  <dimension ref="A1:AI21"/>
+  <dimension ref="A1:AI26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.84375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.921875" style="1" bestFit="1" customWidth="1"/>
@@ -1114,10 +1172,10 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1153,10 +1211,10 @@
         <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>7</v>
@@ -1180,7 +1238,7 @@
         <v>9</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>13</v>
@@ -1221,7 +1279,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>57</v>
@@ -1328,7 +1386,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>57</v>
@@ -1435,7 +1493,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>57</v>
@@ -1542,7 +1600,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>57</v>
@@ -1649,13 +1707,13 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="D6" s="1">
         <v>82</v>
@@ -1670,7 +1728,7 @@
         <v>59</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>30</v>
@@ -1700,7 +1758,7 @@
         <v>27</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>30</v>
@@ -1756,13 +1814,13 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="D7" s="1">
         <v>82</v>
@@ -1771,13 +1829,13 @@
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>30</v>
@@ -1807,7 +1865,7 @@
         <v>27</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>30</v>
@@ -1863,13 +1921,13 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D8" s="1">
         <v>80</v>
@@ -1878,13 +1936,13 @@
         <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>30</v>
@@ -1959,10 +2017,10 @@
         <v>150</v>
       </c>
       <c r="AG8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH8" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AI8" s="1">
         <v>2.8</v>
@@ -1970,13 +2028,13 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" s="1">
         <v>80</v>
@@ -1985,13 +2043,13 @@
         <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>30</v>
@@ -2009,7 +2067,7 @@
         <v>40</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O9" s="1">
         <v>165</v>
@@ -2066,10 +2124,10 @@
         <v>150</v>
       </c>
       <c r="AG9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH9" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="AI9" s="1">
         <v>2.8</v>
@@ -2077,13 +2135,13 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1">
         <v>175</v>
@@ -2092,7 +2150,7 @@
         <v>140</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>59</v>
@@ -2149,7 +2207,7 @@
         <v>50</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>30</v>
@@ -2173,10 +2231,10 @@
         <v>280</v>
       </c>
       <c r="AG10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH10" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="AH10" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="AI10" s="1">
         <v>2.65</v>
@@ -2184,13 +2242,13 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="1">
         <v>90</v>
@@ -2256,7 +2314,7 @@
         <v>31</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>30</v>
@@ -2280,10 +2338,10 @@
         <v>280</v>
       </c>
       <c r="AG11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH11" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="AI11" s="1">
         <v>2.2999999999999998</v>
@@ -2291,13 +2349,13 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D12" s="1">
         <v>120</v>
@@ -2306,7 +2364,7 @@
         <v>90</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>59</v>
@@ -2339,7 +2397,7 @@
         <v>500</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>46</v>
@@ -2363,7 +2421,7 @@
         <v>31</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>30</v>
@@ -2378,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE12" s="1">
         <v>99</v>
@@ -2387,7 +2445,7 @@
         <v>210</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH12" s="1">
         <v>19.899999999999999</v>
@@ -2398,7 +2456,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>57</v>
@@ -2443,13 +2501,13 @@
         <v>240</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>30</v>
@@ -2464,7 +2522,7 @@
         <v>48</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>50</v>
@@ -2485,7 +2543,7 @@
         <v>2</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE13" s="1">
         <v>84</v>
@@ -2494,10 +2552,10 @@
         <v>245</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AI13" s="1">
         <v>2</v>
@@ -2505,13 +2563,13 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1">
         <v>130</v>
@@ -2553,7 +2611,7 @@
         <v>500</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>46</v>
@@ -2601,10 +2659,10 @@
         <v>280</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AI14" s="1">
         <v>3</v>
@@ -2612,13 +2670,13 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="D15" s="1">
         <v>140</v>
@@ -2660,10 +2718,10 @@
         <v>500</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>30</v>
@@ -2684,7 +2742,7 @@
         <v>31</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>30</v>
@@ -2699,7 +2757,7 @@
         <v>2</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE15" s="1">
         <v>80</v>
@@ -2708,7 +2766,7 @@
         <v>250</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AH15" s="1">
         <v>24.8</v>
@@ -2719,13 +2777,13 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D16" s="1">
         <v>100</v>
@@ -2767,10 +2825,10 @@
         <v>500</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>30</v>
@@ -2788,10 +2846,10 @@
         <v>1</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>30</v>
@@ -2806,7 +2864,7 @@
         <v>2</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE16" s="1">
         <v>90</v>
@@ -2815,10 +2873,10 @@
         <v>240</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AI16" s="1">
         <v>2.5</v>
@@ -2826,13 +2884,13 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="1">
         <v>210</v>
@@ -2841,7 +2899,7 @@
         <v>140</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>59</v>
@@ -2874,7 +2932,7 @@
         <v>500</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>46</v>
@@ -2898,7 +2956,7 @@
         <v>31</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>30</v>
@@ -2913,7 +2971,7 @@
         <v>2</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE17" s="1">
         <v>80</v>
@@ -2922,7 +2980,7 @@
         <v>250</v>
       </c>
       <c r="AG17" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AH17" s="1">
         <v>25.6</v>
@@ -2933,7 +2991,7 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>57</v>
@@ -2948,13 +3006,13 @@
         <v>140</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>30</v>
@@ -2981,7 +3039,7 @@
         <v>500</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>46</v>
@@ -3029,7 +3087,7 @@
         <v>330</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AH18" s="1">
         <v>22.9</v>
@@ -3040,13 +3098,13 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D19" s="1">
         <v>80</v>
@@ -3055,13 +3113,13 @@
         <v>80</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I19" s="1">
         <v>50</v>
@@ -3088,10 +3146,10 @@
         <v>400</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>29</v>
@@ -3106,7 +3164,7 @@
         <v>48</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>31</v>
@@ -3136,10 +3194,10 @@
         <v>200</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AI19" s="1">
         <v>1.46</v>
@@ -3147,13 +3205,13 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1">
         <v>135</v>
@@ -3195,7 +3253,7 @@
         <v>400</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>46</v>
@@ -3216,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>49</v>
@@ -3243,10 +3301,10 @@
         <v>280</v>
       </c>
       <c r="AG20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH20" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="AH20" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="AI20" s="1">
         <v>2.2000000000000002</v>
@@ -3254,13 +3312,13 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1">
         <v>110</v>
@@ -3269,13 +3327,13 @@
         <v>110</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>30</v>
@@ -3302,7 +3360,7 @@
         <v>500</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>46</v>
@@ -3323,10 +3381,10 @@
         <v>1</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>30</v>
@@ -3341,7 +3399,7 @@
         <v>2</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AE21" s="1">
         <v>80</v>
@@ -3350,13 +3408,548 @@
         <v>280</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AH21" s="1">
         <v>24.8</v>
       </c>
       <c r="AI21" s="1">
         <v>2.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="1">
+        <v>115</v>
+      </c>
+      <c r="E22" s="1">
+        <v>115</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" s="1">
+        <v>185</v>
+      </c>
+      <c r="L22" s="1">
+        <v>16</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22" s="1">
+        <v>240</v>
+      </c>
+      <c r="P22" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T22" s="1">
+        <v>2</v>
+      </c>
+      <c r="U22" s="1">
+        <v>2</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W22" s="1">
+        <v>1</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>80</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>245</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="1">
+        <v>120</v>
+      </c>
+      <c r="E23" s="1">
+        <v>120</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" s="1">
+        <v>200</v>
+      </c>
+      <c r="L23" s="1">
+        <v>16</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O23" s="1">
+        <v>180</v>
+      </c>
+      <c r="P23" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23" s="1">
+        <v>2</v>
+      </c>
+      <c r="U23" s="1">
+        <v>2</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W23" s="1">
+        <v>1</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>80</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>240</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>26.9</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D24" s="1">
+        <v>200</v>
+      </c>
+      <c r="E24" s="1">
+        <v>130</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="1">
+        <v>180</v>
+      </c>
+      <c r="L24" s="1">
+        <v>16</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24" s="1">
+        <v>180</v>
+      </c>
+      <c r="P24" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T24" s="1">
+        <v>2</v>
+      </c>
+      <c r="U24" s="1">
+        <v>2</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W24" s="1">
+        <v>1</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>60</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>250</v>
+      </c>
+      <c r="AG24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>20</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D25" s="1">
+        <v>195</v>
+      </c>
+      <c r="E25" s="1">
+        <v>130</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="1">
+        <v>180</v>
+      </c>
+      <c r="L25" s="1">
+        <v>16</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" s="1">
+        <v>240</v>
+      </c>
+      <c r="P25" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25" s="1">
+        <v>2</v>
+      </c>
+      <c r="U25" s="1">
+        <v>2</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W25" s="1">
+        <v>1</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>80</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>245</v>
+      </c>
+      <c r="AG25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" s="1">
+        <v>80</v>
+      </c>
+      <c r="E26" s="1">
+        <v>80</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="1">
+        <v>170</v>
+      </c>
+      <c r="L26" s="1">
+        <v>16</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" s="1">
+        <v>240</v>
+      </c>
+      <c r="P26" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T26" s="1">
+        <v>2</v>
+      </c>
+      <c r="U26" s="1">
+        <v>2</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W26" s="1">
+        <v>1</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>83</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>230</v>
+      </c>
+      <c r="AG26" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>2.4</v>
       </c>
     </row>
   </sheetData>
@@ -3368,10 +3961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFEAC08-C68E-4DC7-8960-5E0970DAA788}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="16" x14ac:dyDescent="0.35"/>
@@ -3396,7 +3989,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3408,45 +4001,45 @@
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
@@ -3496,7 +4089,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -3546,7 +4139,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>41</v>
@@ -3584,7 +4177,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>41</v>
@@ -3622,16 +4215,16 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2">
         <v>1829</v>
@@ -3660,16 +4253,16 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E7" s="2">
         <v>1834</v>
@@ -3698,16 +4291,16 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2">
         <v>1790</v>
@@ -3736,16 +4329,16 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2">
         <v>1759</v>
@@ -3774,13 +4367,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>37</v>
@@ -3794,10 +4387,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>58</v>
@@ -3814,13 +4407,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>37</v>
@@ -3834,10 +4427,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>58</v>
@@ -3854,10 +4447,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>58</v>
@@ -3874,10 +4467,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>58</v>
@@ -3894,10 +4487,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>58</v>
@@ -3914,13 +4507,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>37</v>
@@ -3934,16 +4527,16 @@
     </row>
     <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E18" s="1">
         <v>2095</v>
@@ -3954,16 +4547,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" s="1">
         <v>1756</v>
@@ -3974,10 +4567,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>58</v>
@@ -3994,22 +4587,122 @@
     </row>
     <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E21" s="1">
         <v>2126</v>
       </c>
       <c r="G21" s="1">
         <v>37992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1885</v>
+      </c>
+      <c r="G22" s="1">
+        <v>31637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1851</v>
+      </c>
+      <c r="G23" s="1">
+        <v>33329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1727</v>
+      </c>
+      <c r="G24" s="1">
+        <v>18575</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2124</v>
+      </c>
+      <c r="G25" s="1">
+        <v>27337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1930</v>
+      </c>
+      <c r="G26" s="1">
+        <v>29454</v>
       </c>
     </row>
   </sheetData>
@@ -4020,10 +4713,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAE2845-E5DA-4A2F-AF36-B0EED8E1A7B7}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.15234375" defaultRowHeight="16" x14ac:dyDescent="0.35"/>
@@ -4042,7 +4735,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4054,24 +4747,24 @@
         <v>36</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
@@ -4100,7 +4793,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -4129,7 +4822,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>41</v>
@@ -4158,7 +4851,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>41</v>
@@ -4187,16 +4880,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="5">
         <v>30785</v>
@@ -4216,16 +4909,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E7" s="5">
         <v>29174</v>
@@ -4245,16 +4938,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="5">
         <v>30201</v>
@@ -4274,16 +4967,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="5">
         <v>26129</v>
@@ -4303,13 +4996,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>37</v>
@@ -4320,10 +5013,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>58</v>
@@ -4337,13 +5030,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>37</v>
@@ -4354,10 +5047,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>58</v>
@@ -4371,10 +5064,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>58</v>
@@ -4388,10 +5081,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>58</v>
@@ -4405,10 +5098,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>58</v>
@@ -4422,13 +5115,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>37</v>
@@ -4439,16 +5132,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H18" s="3">
         <v>17579</v>
@@ -4456,16 +5149,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H19" s="3">
         <v>12320</v>
@@ -4473,10 +5166,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>58</v>
@@ -4490,19 +5183,104 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H21" s="3">
         <v>17652</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="3">
+        <v>12347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="3">
+        <v>12387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="3">
+        <v>9686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="3">
+        <v>12147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="3">
+        <v>11772</v>
       </c>
     </row>
   </sheetData>
@@ -4513,10 +5291,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621FDEC-049F-42F4-9153-BBF6657B44B9}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -4544,7 +5322,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4556,54 +5334,54 @@
         <v>36</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>118</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>23</v>
@@ -4617,7 +5395,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>41</v>
@@ -4676,7 +5454,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>41</v>
@@ -4735,7 +5513,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>41</v>
@@ -4794,16 +5572,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2">
         <v>65.78</v>
@@ -4853,55 +5631,55 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>37</v>
@@ -4915,10 +5693,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>58</v>
@@ -4932,13 +5710,13 @@
     </row>
     <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>37</v>
@@ -4952,10 +5730,10 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>58</v>
@@ -4972,10 +5750,10 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>58</v>
@@ -4992,10 +5770,10 @@
     </row>
     <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>58</v>
@@ -5012,10 +5790,10 @@
     </row>
     <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>58</v>
@@ -5032,13 +5810,13 @@
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>37</v>
@@ -5052,16 +5830,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F18" s="6">
         <v>119</v>
@@ -5072,16 +5850,16 @@
     </row>
     <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F19" s="6">
         <v>60</v>
@@ -5092,10 +5870,10 @@
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>58</v>
@@ -5112,16 +5890,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F21" s="6">
         <v>129</v>
@@ -5130,391 +5908,98 @@
         <v>156</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B9D477-4E1C-4279-9EC4-F5803BA796EC}">
-  <dimension ref="A1:S9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="25.53515625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.84375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.53515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.15234375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="34.07421875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.23046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.07421875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.69140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.4609375" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.84375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37.921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.23046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="25.53515625" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F1" s="6" t="s">
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="6">
+        <v>71</v>
+      </c>
+      <c r="K22" s="6">
         <v>108</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="6">
-        <v>164.15</v>
-      </c>
-      <c r="F3" s="6">
-        <v>194</v>
-      </c>
-      <c r="G3" s="6">
-        <v>233.8</v>
-      </c>
-      <c r="H3" s="6">
-        <v>239.3</v>
-      </c>
-      <c r="I3" s="6">
-        <v>113.99</v>
-      </c>
-      <c r="J3" s="6">
-        <v>278.95999999999998</v>
-      </c>
-      <c r="K3" s="6">
-        <v>235</v>
-      </c>
-      <c r="L3" s="6">
-        <v>131</v>
-      </c>
-      <c r="M3" s="6">
-        <v>109</v>
-      </c>
-      <c r="N3" s="6">
-        <v>214.6</v>
-      </c>
-      <c r="O3" s="6">
-        <v>129</v>
-      </c>
-      <c r="P3" s="6">
-        <v>144</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>160.59</v>
-      </c>
-      <c r="R3" s="6">
-        <v>100.39</v>
-      </c>
-      <c r="S3" s="6">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="2">
-        <v>157.81</v>
-      </c>
-      <c r="F4" s="2">
-        <v>183</v>
-      </c>
-      <c r="G4" s="2">
-        <v>214</v>
-      </c>
-      <c r="H4" s="2">
-        <v>239.5</v>
-      </c>
-      <c r="I4" s="2">
-        <v>108.44</v>
-      </c>
-      <c r="J4" s="2">
-        <v>271.39</v>
-      </c>
-      <c r="K4" s="2">
-        <v>223</v>
-      </c>
-      <c r="L4" s="2">
-        <v>128</v>
-      </c>
-      <c r="M4" s="2">
-        <v>102</v>
-      </c>
-      <c r="N4" s="2">
-        <v>215.7</v>
-      </c>
-      <c r="O4" s="2">
-        <v>121.69</v>
-      </c>
-      <c r="P4" s="2">
-        <v>127</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>147.6</v>
-      </c>
-      <c r="R4" s="2">
-        <v>96.79</v>
-      </c>
-      <c r="S4" s="2">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="6">
+        <v>63</v>
+      </c>
+      <c r="K23" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="6">
+        <v>50</v>
+      </c>
+      <c r="K24" s="6">
         <v>86</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2">
-        <v>132.15</v>
-      </c>
-      <c r="F5" s="2">
-        <v>136</v>
-      </c>
-      <c r="G5" s="2">
+    </row>
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="2">
-        <v>197.6</v>
-      </c>
-      <c r="I5" s="2">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="J5" s="2">
-        <v>224.04</v>
-      </c>
-      <c r="K5" s="2">
-        <v>192</v>
-      </c>
-      <c r="L5" s="2">
-        <v>104</v>
-      </c>
-      <c r="M5" s="2">
-        <v>71</v>
-      </c>
-      <c r="N5" s="2">
-        <v>242.8</v>
-      </c>
-      <c r="O5" s="2">
-        <v>84.18</v>
-      </c>
-      <c r="P5" s="2">
-        <v>92</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>103.62</v>
-      </c>
-      <c r="R5" s="2">
-        <v>60.92</v>
-      </c>
-      <c r="S5" s="2">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="2">
-        <v>81.08</v>
-      </c>
-      <c r="F6" s="2">
-        <v>107</v>
-      </c>
-      <c r="G6" s="2">
-        <v>118.3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>171.7</v>
-      </c>
-      <c r="I6" s="2">
-        <v>81.94</v>
-      </c>
-      <c r="J6" s="2">
-        <v>146.54</v>
-      </c>
-      <c r="K6" s="2">
-        <v>121</v>
-      </c>
-      <c r="L6" s="2">
-        <v>71</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="2">
-        <v>193.3</v>
-      </c>
-      <c r="O6" s="2">
-        <v>71.88</v>
-      </c>
-      <c r="P6" s="2">
-        <v>73</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>85.16</v>
-      </c>
-      <c r="R6" s="2">
-        <v>46.85</v>
-      </c>
-      <c r="S6" s="2">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>62</v>
+      <c r="D26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="6">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.huang\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6E72BF-0B61-493B-BA3B-EB5B1BB4751E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3656377-4DA3-48A8-BAFF-EE99DE901528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="195">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,9 +506,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XGM 耀世15Pro</t>
-  </si>
-  <si>
     <t>U7 155H</t>
   </si>
   <si>
@@ -527,9 +524,6 @@
     <t>Lan (Gbps)</t>
   </si>
   <si>
-    <t>LVN Legion 7i Y9000X</t>
-  </si>
-  <si>
     <t>DDR5 6400MHz</t>
   </si>
   <si>
@@ -554,9 +548,6 @@
     <t>399x294</t>
   </si>
   <si>
-    <t>XGM 蛟龍16Pro</t>
-  </si>
-  <si>
     <t>AMD</t>
   </si>
   <si>
@@ -584,9 +575,6 @@
     <t>359x266.4</t>
   </si>
   <si>
-    <t>XGM 耀世16Ultra</t>
-  </si>
-  <si>
     <t>356.6x254.7</t>
   </si>
   <si>
@@ -650,9 +638,6 @@
     <t>21.69~25.95</t>
   </si>
   <si>
-    <t>LNV 斗战者 战7000</t>
-  </si>
-  <si>
     <t>R9 8940HX</t>
   </si>
   <si>
@@ -668,9 +653,6 @@
     <t>Lecoo 斗战者 战7000</t>
   </si>
   <si>
-    <t>XGM 曠世X</t>
-  </si>
-  <si>
     <t>i7 13620H</t>
   </si>
   <si>
@@ -696,6 +678,70 @@
   </si>
   <si>
     <t>23.8~28.4</t>
+  </si>
+  <si>
+    <t>LNV Legion 5i Y7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i7 14650HX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.50~23.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>344.9x255.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LNV Legion Pro 7 R9000P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.9~26.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>364.38x275.94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9 9955HX3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniLED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MECHREVO 耀世15Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MECHREVO 蛟龍16Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MECHREVO 耀世16Ultra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MECHREVO 曠世X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MECHREVO 蒼龍16 Ultra</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TUF A16 FA608PP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R9 8940HX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -703,28 +749,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="165" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -732,13 +778,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Aptos Narrow"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -772,7 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -784,7 +830,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1124,53 +1170,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
-  <dimension ref="A1:AI26"/>
+  <dimension ref="A1:AI31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.69140625" style="1"/>
+    <col min="1" max="1" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -1238,7 +1284,7 @@
         <v>9</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>13</v>
@@ -1277,7 +1323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -1384,7 +1430,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -1491,7 +1537,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
@@ -1598,7 +1644,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -1705,7 +1751,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
@@ -1713,7 +1759,7 @@
         <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D6" s="1">
         <v>82</v>
@@ -1812,7 +1858,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
@@ -1820,7 +1866,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D7" s="1">
         <v>82</v>
@@ -1919,7 +1965,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -2026,7 +2072,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -2133,7 +2179,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -2240,7 +2286,7 @@
         <v>2.65</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -2347,15 +2393,15 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="1">
         <v>120</v>
@@ -2397,7 +2443,7 @@
         <v>500</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>46</v>
@@ -2436,7 +2482,7 @@
         <v>2</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AE12" s="1">
         <v>99</v>
@@ -2445,7 +2491,7 @@
         <v>210</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH12" s="1">
         <v>19.899999999999999</v>
@@ -2454,9 +2500,9 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>57</v>
@@ -2501,13 +2547,13 @@
         <v>240</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>30</v>
@@ -2522,7 +2568,7 @@
         <v>48</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>50</v>
@@ -2543,7 +2589,7 @@
         <v>2</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AE13" s="1">
         <v>84</v>
@@ -2552,18 +2598,18 @@
         <v>245</v>
       </c>
       <c r="AG13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH13" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AH13" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="AI13" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>64</v>
@@ -2611,7 +2657,7 @@
         <v>500</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>46</v>
@@ -2659,24 +2705,24 @@
         <v>280</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AI14" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D15" s="1">
         <v>140</v>
@@ -2718,10 +2764,10 @@
         <v>500</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>30</v>
@@ -2757,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AE15" s="1">
         <v>80</v>
@@ -2766,7 +2812,7 @@
         <v>250</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AH15" s="1">
         <v>24.8</v>
@@ -2775,15 +2821,15 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D16" s="1">
         <v>100</v>
@@ -2825,10 +2871,10 @@
         <v>500</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>30</v>
@@ -2846,10 +2892,10 @@
         <v>1</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>30</v>
@@ -2864,7 +2910,7 @@
         <v>2</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AE16" s="1">
         <v>90</v>
@@ -2873,18 +2919,18 @@
         <v>240</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AI16" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>57</v>
@@ -2932,7 +2978,7 @@
         <v>500</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>46</v>
@@ -2971,7 +3017,7 @@
         <v>2</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AE17" s="1">
         <v>80</v>
@@ -2980,7 +3026,7 @@
         <v>250</v>
       </c>
       <c r="AG17" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AH17" s="1">
         <v>25.6</v>
@@ -2989,9 +3035,9 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>57</v>
@@ -3006,13 +3052,13 @@
         <v>140</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>30</v>
@@ -3039,7 +3085,7 @@
         <v>500</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>46</v>
@@ -3087,7 +3133,7 @@
         <v>330</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="AH18" s="1">
         <v>22.9</v>
@@ -3096,15 +3142,15 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D19" s="1">
         <v>80</v>
@@ -3119,7 +3165,7 @@
         <v>59</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I19" s="1">
         <v>50</v>
@@ -3146,10 +3192,10 @@
         <v>400</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>29</v>
@@ -3164,7 +3210,7 @@
         <v>48</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>31</v>
@@ -3194,18 +3240,18 @@
         <v>200</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AI19" s="1">
         <v>1.46</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>57</v>
@@ -3253,7 +3299,7 @@
         <v>400</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>46</v>
@@ -3274,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>49</v>
@@ -3301,21 +3347,21 @@
         <v>280</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AI20" s="1">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>74</v>
@@ -3327,13 +3373,13 @@
         <v>110</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>30</v>
@@ -3360,7 +3406,7 @@
         <v>500</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>46</v>
@@ -3381,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>71</v>
@@ -3399,7 +3445,7 @@
         <v>2</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AE21" s="1">
         <v>80</v>
@@ -3408,7 +3454,7 @@
         <v>280</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="AH21" s="1">
         <v>24.8</v>
@@ -3417,15 +3463,15 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D22" s="1">
         <v>115</v>
@@ -3467,10 +3513,10 @@
         <v>500</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>30</v>
@@ -3506,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AE22" s="1">
         <v>80</v>
@@ -3515,24 +3561,24 @@
         <v>245</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AH22" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AI22" s="1">
         <v>2.4</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D23" s="1">
         <v>120</v>
@@ -3574,10 +3620,10 @@
         <v>500</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>30</v>
@@ -3595,10 +3641,10 @@
         <v>1</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>30</v>
@@ -3613,7 +3659,7 @@
         <v>2</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AE23" s="1">
         <v>80</v>
@@ -3622,7 +3668,7 @@
         <v>240</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AH23" s="1">
         <v>26.9</v>
@@ -3631,15 +3677,15 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D24" s="1">
         <v>200</v>
@@ -3648,7 +3694,7 @@
         <v>130</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>59</v>
@@ -3681,10 +3727,10 @@
         <v>500</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>30</v>
@@ -3702,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>71</v>
@@ -3720,7 +3766,7 @@
         <v>2</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AE24" s="1">
         <v>60</v>
@@ -3729,7 +3775,7 @@
         <v>250</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AH24" s="1">
         <v>20</v>
@@ -3738,15 +3784,15 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D25" s="1">
         <v>195</v>
@@ -3788,7 +3834,7 @@
         <v>500</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>46</v>
@@ -3827,7 +3873,7 @@
         <v>2</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AE25" s="1">
         <v>80</v>
@@ -3836,24 +3882,24 @@
         <v>245</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AH25" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AI25" s="1">
         <v>2.4</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D26" s="1">
         <v>80</v>
@@ -3895,10 +3941,10 @@
         <v>500</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>30</v>
@@ -3919,7 +3965,7 @@
         <v>31</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>30</v>
@@ -3943,13 +3989,548 @@
         <v>230</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AI26" s="1">
         <v>2.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D27" s="1">
+        <v>168</v>
+      </c>
+      <c r="E27" s="1">
+        <v>115</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="1">
+        <v>160</v>
+      </c>
+      <c r="L27" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" s="1">
+        <v>180</v>
+      </c>
+      <c r="P27" s="1">
+        <v>400</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T27" s="1">
+        <v>2</v>
+      </c>
+      <c r="U27" s="1">
+        <v>2</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W27" s="1">
+        <v>1</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB27" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>60</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>245</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="1">
+        <v>115</v>
+      </c>
+      <c r="E28" s="1">
+        <v>115</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="1">
+        <v>200</v>
+      </c>
+      <c r="L28" s="1">
+        <v>16</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" s="1">
+        <v>240</v>
+      </c>
+      <c r="P28" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T28" s="1">
+        <v>2</v>
+      </c>
+      <c r="U28" s="1">
+        <v>2</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W28" s="1">
+        <v>1</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>80</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>300</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="1">
+        <v>130</v>
+      </c>
+      <c r="E29" s="1">
+        <v>90</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" s="1">
+        <v>145</v>
+      </c>
+      <c r="L29" s="1">
+        <v>16</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" s="1">
+        <v>240</v>
+      </c>
+      <c r="P29" s="1">
+        <v>500</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" s="1">
+        <v>2</v>
+      </c>
+      <c r="U29" s="1">
+        <v>2</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W29" s="1">
+        <v>1</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>80</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>230</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="1">
+        <v>110</v>
+      </c>
+      <c r="E30" s="1">
+        <v>110</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" s="1">
+        <v>240</v>
+      </c>
+      <c r="L30" s="1">
+        <v>16</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" s="1">
+        <v>300</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1200</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T30" s="1">
+        <v>2</v>
+      </c>
+      <c r="U30" s="1">
+        <v>2</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W30" s="1">
+        <v>1</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>99</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>420</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>25</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="1">
+        <v>90</v>
+      </c>
+      <c r="E31" s="1">
+        <v>90</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="1">
+        <v>50</v>
+      </c>
+      <c r="J31" s="1">
+        <v>100</v>
+      </c>
+      <c r="K31" s="1">
+        <v>170</v>
+      </c>
+      <c r="L31" s="1">
+        <v>16</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O31" s="1">
+        <v>165</v>
+      </c>
+      <c r="P31" s="1">
+        <v>400</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T31" s="1">
+        <v>2</v>
+      </c>
+      <c r="U31" s="1">
+        <v>2</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W31" s="1">
+        <v>1</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>100</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>90</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>280</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>2.2999999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -3961,33 +4542,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFEAC08-C68E-4DC7-8960-5E0970DAA788}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="16" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3828125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.15234375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="21.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.69140625" style="1"/>
+    <col min="1" max="1" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -4037,7 +4618,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -4087,7 +4668,7 @@
         <v>12241</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -4137,7 +4718,7 @@
         <v>18867</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
@@ -4175,7 +4756,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -4213,12 +4794,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>58</v>
@@ -4251,12 +4832,12 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>63</v>
@@ -4289,7 +4870,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -4327,7 +4908,7 @@
         <v>56.4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -4365,7 +4946,7 @@
         <v>47.2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -4385,7 +4966,7 @@
         <v>31375</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -4405,12 +4986,12 @@
         <v>35477</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>63</v>
@@ -4425,9 +5006,9 @@
         <v>18607</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>70</v>
@@ -4445,9 +5026,9 @@
         <v>32647</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>74</v>
@@ -4465,12 +5046,12 @@
         <v>38641</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>58</v>
@@ -4485,12 +5066,12 @@
         <v>25970</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>58</v>
@@ -4505,9 +5086,9 @@
         <v>31318</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>70</v>
@@ -4525,18 +5106,18 @@
         <v>31460</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E18" s="1">
         <v>2095</v>
@@ -4545,9 +5126,9 @@
         <v>34952</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>65</v>
@@ -4556,7 +5137,7 @@
         <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E19" s="1">
         <v>1756</v>
@@ -4565,9 +5146,9 @@
         <v>16929</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>70</v>
@@ -4585,18 +5166,18 @@
         <v>27843</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E21" s="1">
         <v>2126</v>
@@ -4605,12 +5186,12 @@
         <v>37992</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>63</v>
@@ -4625,12 +5206,12 @@
         <v>31637</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>63</v>
@@ -4645,15 +5226,15 @@
         <v>33329</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>37</v>
@@ -4665,12 +5246,12 @@
         <v>18575</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>63</v>
@@ -4685,12 +5266,12 @@
         <v>27337</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>63</v>
@@ -4703,6 +5284,112 @@
       </c>
       <c r="G26" s="1">
         <v>29454</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1923</v>
+      </c>
+      <c r="G27" s="1">
+        <v>21730</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1885</v>
+      </c>
+      <c r="G28" s="1">
+        <v>32973</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1879</v>
+      </c>
+      <c r="G29" s="1">
+        <v>19519</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2158</v>
+      </c>
+      <c r="G30" s="1">
+        <v>37880</v>
+      </c>
+      <c r="H30" s="1">
+        <v>127</v>
+      </c>
+      <c r="J30" s="1">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1822</v>
+      </c>
+      <c r="G31" s="1">
+        <v>29484</v>
       </c>
     </row>
   </sheetData>
@@ -4713,27 +5400,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAE2845-E5DA-4A2F-AF36-B0EED8E1A7B7}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.15234375" defaultRowHeight="16" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.4609375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.07421875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.23046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.15234375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.23046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.4609375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="7.15234375" style="3"/>
+    <col min="1" max="1" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="7.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -4762,7 +5449,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -4791,7 +5478,7 @@
         <v>8041</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -4820,7 +5507,7 @@
         <v>11769</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,7 +5536,7 @@
         <v>10614</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -4878,12 +5565,12 @@
         <v>6513</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>58</v>
@@ -4907,12 +5594,12 @@
         <v>5690</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>63</v>
@@ -4936,7 +5623,7 @@
         <v>5084</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -4965,7 +5652,7 @@
         <v>5048</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -4994,7 +5681,7 @@
         <v>4383</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -5011,7 +5698,7 @@
         <v>12657</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -5028,12 +5715,12 @@
         <v>13957</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>63</v>
@@ -5045,9 +5732,9 @@
         <v>12068</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>70</v>
@@ -5062,9 +5749,9 @@
         <v>13797</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>74</v>
@@ -5079,12 +5766,12 @@
         <v>14262</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>58</v>
@@ -5096,12 +5783,12 @@
         <v>13726</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>58</v>
@@ -5113,9 +5800,9 @@
         <v>13724</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>70</v>
@@ -5130,26 +5817,26 @@
         <v>12116</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H18" s="3">
         <v>17579</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>65</v>
@@ -5158,15 +5845,15 @@
         <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H19" s="3">
         <v>12320</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>70</v>
@@ -5181,29 +5868,29 @@
         <v>14120</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H21" s="3">
         <v>17652</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>63</v>
@@ -5215,12 +5902,12 @@
         <v>12347</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>63</v>
@@ -5232,15 +5919,15 @@
         <v>12387</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>37</v>
@@ -5249,12 +5936,12 @@
         <v>9686</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>63</v>
@@ -5266,12 +5953,12 @@
         <v>12147</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>63</v>
@@ -5281,6 +5968,91 @@
       </c>
       <c r="H26" s="3">
         <v>11772</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="3">
+        <v>12298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="3">
+        <v>12362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="3">
+        <v>14048</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="3">
+        <v>24043</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="3">
+        <v>14546</v>
       </c>
     </row>
   </sheetData>
@@ -5291,36 +6063,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621FDEC-049F-42F4-9153-BBF6657B44B9}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.69140625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.84375" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.53515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.15234375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="34.07421875" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.23046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.07421875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.69140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.4609375" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.84375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37.921875" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.23046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="20.69140625" style="6"/>
+    <col min="1" max="1" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="20.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -5379,7 +6152,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -5393,7 +6166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -5452,7 +6225,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
@@ -5511,7 +6284,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -5570,12 +6343,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>58</v>
@@ -5629,12 +6402,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>63</v>
@@ -5643,7 +6416,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -5657,7 +6430,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -5671,7 +6444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -5691,7 +6464,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -5708,12 +6481,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>63</v>
@@ -5728,9 +6501,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>70</v>
@@ -5748,9 +6521,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>74</v>
@@ -5768,12 +6541,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>58</v>
@@ -5788,12 +6561,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>58</v>
@@ -5808,9 +6581,9 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>70</v>
@@ -5828,18 +6601,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F18" s="6">
         <v>119</v>
@@ -5848,9 +6621,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>65</v>
@@ -5859,7 +6632,7 @@
         <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F19" s="6">
         <v>60</v>
@@ -5868,9 +6641,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>70</v>
@@ -5888,18 +6661,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F21" s="6">
         <v>129</v>
@@ -5908,12 +6681,12 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>63</v>
@@ -5928,12 +6701,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>63</v>
@@ -5948,15 +6721,15 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>37</v>
@@ -5968,12 +6741,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>63</v>
@@ -5985,12 +6758,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>63</v>
@@ -6000,6 +6773,106 @@
       </c>
       <c r="K26" s="6">
         <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="6">
+        <v>53</v>
+      </c>
+      <c r="K27" s="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="6">
+        <v>70</v>
+      </c>
+      <c r="K28" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="6">
+        <v>66</v>
+      </c>
+      <c r="K29" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="6">
+        <v>148</v>
+      </c>
+      <c r="K30" s="6">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="6">
+        <v>69</v>
+      </c>
+      <c r="K31" s="6">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.huang\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3656377-4DA3-48A8-BAFF-EE99DE901528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0D5915-F5B6-44A0-A2C3-F6A72E6BC2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="SPEC" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="193">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,18 +458,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Red Dead Redemption 2 [Ultra]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rise of the Tomb Raider [Very High]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assassin's Creed Odyssey [Ultra High]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Black Myth: Wukong [High]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -498,10 +486,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Gears 5 [Ultra]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shadow of the Tomb Raider [Highest]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -741,6 +725,14 @@
   </si>
   <si>
     <t>R9 8940HX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX5070Ti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1172,7 +1164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5317B7F1-97B1-4158-9079-381F44477F99}">
   <dimension ref="A1:AI31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -1284,7 +1276,7 @@
         <v>9</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>13</v>
@@ -1759,7 +1751,7 @@
         <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D6" s="1">
         <v>82</v>
@@ -1866,7 +1858,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D7" s="1">
         <v>82</v>
@@ -2395,13 +2387,13 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D12" s="1">
         <v>120</v>
@@ -2443,7 +2435,7 @@
         <v>500</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>46</v>
@@ -2482,7 +2474,7 @@
         <v>2</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE12" s="1">
         <v>99</v>
@@ -2491,7 +2483,7 @@
         <v>210</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AH12" s="1">
         <v>19.899999999999999</v>
@@ -2502,7 +2494,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>57</v>
@@ -2547,13 +2539,13 @@
         <v>240</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>30</v>
@@ -2568,7 +2560,7 @@
         <v>48</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>50</v>
@@ -2589,7 +2581,7 @@
         <v>2</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AE13" s="1">
         <v>84</v>
@@ -2598,10 +2590,10 @@
         <v>245</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AI13" s="1">
         <v>2</v>
@@ -2609,7 +2601,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>64</v>
@@ -2657,7 +2649,7 @@
         <v>500</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>46</v>
@@ -2705,10 +2697,10 @@
         <v>280</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AI14" s="1">
         <v>3</v>
@@ -2716,13 +2708,13 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D15" s="1">
         <v>140</v>
@@ -2764,10 +2756,10 @@
         <v>500</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>30</v>
@@ -2803,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE15" s="1">
         <v>80</v>
@@ -2812,7 +2804,7 @@
         <v>250</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AH15" s="1">
         <v>24.8</v>
@@ -2823,13 +2815,13 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D16" s="1">
         <v>100</v>
@@ -2871,10 +2863,10 @@
         <v>500</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>30</v>
@@ -2892,10 +2884,10 @@
         <v>1</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>30</v>
@@ -2910,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE16" s="1">
         <v>90</v>
@@ -2919,10 +2911,10 @@
         <v>240</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AI16" s="1">
         <v>2.5</v>
@@ -2930,7 +2922,7 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>57</v>
@@ -2978,7 +2970,7 @@
         <v>500</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>46</v>
@@ -3017,7 +3009,7 @@
         <v>2</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE17" s="1">
         <v>80</v>
@@ -3026,7 +3018,7 @@
         <v>250</v>
       </c>
       <c r="AG17" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AH17" s="1">
         <v>25.6</v>
@@ -3037,7 +3029,7 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>57</v>
@@ -3052,13 +3044,13 @@
         <v>140</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>30</v>
@@ -3085,7 +3077,7 @@
         <v>500</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>46</v>
@@ -3133,7 +3125,7 @@
         <v>330</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AH18" s="1">
         <v>22.9</v>
@@ -3144,13 +3136,13 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D19" s="1">
         <v>80</v>
@@ -3165,7 +3157,7 @@
         <v>59</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I19" s="1">
         <v>50</v>
@@ -3192,10 +3184,10 @@
         <v>400</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>29</v>
@@ -3210,7 +3202,7 @@
         <v>48</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>31</v>
@@ -3240,10 +3232,10 @@
         <v>200</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AI19" s="1">
         <v>1.46</v>
@@ -3251,7 +3243,7 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>57</v>
@@ -3299,7 +3291,7 @@
         <v>400</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>46</v>
@@ -3320,7 +3312,7 @@
         <v>1</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>49</v>
@@ -3347,10 +3339,10 @@
         <v>280</v>
       </c>
       <c r="AG20" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AH20" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AI20" s="1">
         <v>2.2000000000000002</v>
@@ -3358,10 +3350,10 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>74</v>
@@ -3373,13 +3365,13 @@
         <v>110</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>30</v>
@@ -3406,7 +3398,7 @@
         <v>500</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>46</v>
@@ -3427,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>71</v>
@@ -3445,7 +3437,7 @@
         <v>2</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE21" s="1">
         <v>80</v>
@@ -3454,7 +3446,7 @@
         <v>280</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="AH21" s="1">
         <v>24.8</v>
@@ -3465,13 +3457,13 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D22" s="1">
         <v>115</v>
@@ -3513,10 +3505,10 @@
         <v>500</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>30</v>
@@ -3552,7 +3544,7 @@
         <v>2</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AE22" s="1">
         <v>80</v>
@@ -3561,10 +3553,10 @@
         <v>245</v>
       </c>
       <c r="AG22" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AH22" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AI22" s="1">
         <v>2.4</v>
@@ -3572,13 +3564,13 @@
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D23" s="1">
         <v>120</v>
@@ -3620,10 +3612,10 @@
         <v>500</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>30</v>
@@ -3641,10 +3633,10 @@
         <v>1</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>30</v>
@@ -3659,7 +3651,7 @@
         <v>2</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE23" s="1">
         <v>80</v>
@@ -3668,7 +3660,7 @@
         <v>240</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AH23" s="1">
         <v>26.9</v>
@@ -3679,13 +3671,13 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D24" s="1">
         <v>200</v>
@@ -3694,7 +3686,7 @@
         <v>130</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>59</v>
@@ -3727,10 +3719,10 @@
         <v>500</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>30</v>
@@ -3748,7 +3740,7 @@
         <v>1</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>71</v>
@@ -3766,7 +3758,7 @@
         <v>2</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE24" s="1">
         <v>60</v>
@@ -3775,7 +3767,7 @@
         <v>250</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AH24" s="1">
         <v>20</v>
@@ -3786,13 +3778,13 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D25" s="1">
         <v>195</v>
@@ -3834,7 +3826,7 @@
         <v>500</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>46</v>
@@ -3873,7 +3865,7 @@
         <v>2</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AE25" s="1">
         <v>80</v>
@@ -3882,10 +3874,10 @@
         <v>245</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AH25" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AI25" s="1">
         <v>2.4</v>
@@ -3893,13 +3885,13 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D26" s="1">
         <v>80</v>
@@ -3941,10 +3933,10 @@
         <v>500</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>30</v>
@@ -3965,7 +3957,7 @@
         <v>31</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>30</v>
@@ -3989,10 +3981,10 @@
         <v>230</v>
       </c>
       <c r="AG26" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AH26" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AI26" s="1">
         <v>2.4</v>
@@ -4000,13 +3992,13 @@
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D27" s="1">
         <v>168</v>
@@ -4048,7 +4040,7 @@
         <v>400</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>46</v>
@@ -4069,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>71</v>
@@ -4087,7 +4079,7 @@
         <v>2</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AE27" s="1">
         <v>60</v>
@@ -4096,10 +4088,10 @@
         <v>245</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AI27" s="1">
         <v>2.1</v>
@@ -4107,13 +4099,13 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D28" s="1">
         <v>115</v>
@@ -4155,10 +4147,10 @@
         <v>500</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>30</v>
@@ -4194,7 +4186,7 @@
         <v>4</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AE28" s="1">
         <v>80</v>
@@ -4203,10 +4195,10 @@
         <v>300</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AH28" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AI28" s="1">
         <v>2.56</v>
@@ -4214,13 +4206,13 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D29" s="1">
         <v>130</v>
@@ -4262,7 +4254,7 @@
         <v>500</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>46</v>
@@ -4286,7 +4278,7 @@
         <v>31</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>30</v>
@@ -4310,10 +4302,10 @@
         <v>230</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AH29" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AI29" s="1">
         <v>2.4</v>
@@ -4321,13 +4313,13 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D30" s="1">
         <v>110</v>
@@ -4357,7 +4349,7 @@
         <v>16</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>26</v>
@@ -4369,7 +4361,7 @@
         <v>1200</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>46</v>
@@ -4428,13 +4420,13 @@
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D31" s="1">
         <v>90</v>
@@ -4479,7 +4471,7 @@
         <v>27</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>30</v>
@@ -4799,7 +4791,7 @@
         <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>58</v>
@@ -4837,7 +4829,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>63</v>
@@ -4988,10 +4980,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>63</v>
@@ -5008,7 +5000,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>70</v>
@@ -5028,7 +5020,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>74</v>
@@ -5048,10 +5040,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>58</v>
@@ -5068,10 +5060,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>58</v>
@@ -5088,7 +5080,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>70</v>
@@ -5108,16 +5100,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E18" s="1">
         <v>2095</v>
@@ -5128,7 +5120,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>65</v>
@@ -5137,7 +5129,7 @@
         <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E19" s="1">
         <v>1756</v>
@@ -5148,7 +5140,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>70</v>
@@ -5168,16 +5160,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E21" s="1">
         <v>2126</v>
@@ -5188,10 +5180,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>63</v>
@@ -5208,10 +5200,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>63</v>
@@ -5228,13 +5220,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>37</v>
@@ -5248,10 +5240,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>63</v>
@@ -5268,10 +5260,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>63</v>
@@ -5288,10 +5280,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>63</v>
@@ -5308,10 +5300,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>63</v>
@@ -5328,10 +5320,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>58</v>
@@ -5348,10 +5340,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>42</v>
@@ -5374,10 +5366,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>58</v>
@@ -5400,10 +5392,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAE2845-E5DA-4A2F-AF36-B0EED8E1A7B7}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -5538,60 +5530,60 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>191</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="E5" s="5">
-        <v>35460</v>
+        <v>43405</v>
       </c>
       <c r="F5" s="5">
-        <v>17081</v>
+        <v>22660</v>
       </c>
       <c r="G5" s="5">
-        <v>7943</v>
+        <v>11200</v>
       </c>
       <c r="H5" s="5">
-        <v>14657</v>
+        <v>17697</v>
       </c>
       <c r="I5" s="5">
-        <v>6513</v>
+        <v>8362</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E6" s="5">
-        <v>30785</v>
+        <v>35460</v>
       </c>
       <c r="F6" s="5">
-        <v>15959</v>
+        <v>17081</v>
       </c>
       <c r="G6" s="5">
-        <v>7369</v>
+        <v>7943</v>
       </c>
       <c r="H6" s="5">
-        <v>12589</v>
+        <v>14657</v>
       </c>
       <c r="I6" s="5">
-        <v>5690</v>
+        <v>6513</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -5599,36 +5591,36 @@
         <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E7" s="5">
-        <v>29174</v>
+        <v>30785</v>
       </c>
       <c r="F7" s="5">
-        <v>14261</v>
+        <v>15959</v>
       </c>
       <c r="G7" s="5">
-        <v>6718</v>
+        <v>7369</v>
       </c>
       <c r="H7" s="5">
-        <v>10949</v>
+        <v>12589</v>
       </c>
       <c r="I7" s="5">
-        <v>5084</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>63</v>
@@ -5637,19 +5629,19 @@
         <v>61</v>
       </c>
       <c r="E8" s="5">
-        <v>30201</v>
+        <v>29174</v>
       </c>
       <c r="F8" s="5">
-        <v>14152</v>
+        <v>14261</v>
       </c>
       <c r="G8" s="5">
-        <v>6584</v>
+        <v>6718</v>
       </c>
       <c r="H8" s="5">
-        <v>10919</v>
+        <v>10949</v>
       </c>
       <c r="I8" s="5">
-        <v>5048</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -5657,104 +5649,116 @@
         <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="5">
-        <v>26129</v>
+        <v>30201</v>
       </c>
       <c r="F9" s="5">
-        <v>12408</v>
+        <v>14152</v>
       </c>
       <c r="G9" s="5">
-        <v>5777</v>
+        <v>6584</v>
       </c>
       <c r="H9" s="5">
-        <v>9567</v>
+        <v>10919</v>
       </c>
       <c r="I9" s="5">
-        <v>4383</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="3">
-        <v>12657</v>
+        <v>61</v>
+      </c>
+      <c r="E10" s="5">
+        <v>26129</v>
+      </c>
+      <c r="F10" s="5">
+        <v>12408</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5777</v>
+      </c>
+      <c r="H10" s="5">
+        <v>9567</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4383</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="3">
-        <v>13957</v>
+        <v>12657</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>188</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="3">
-        <v>12068</v>
+        <v>13957</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="3">
-        <v>13797</v>
+        <v>12068</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>58</v>
@@ -5763,15 +5767,15 @@
         <v>37</v>
       </c>
       <c r="H14" s="3">
-        <v>14262</v>
+        <v>13797</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>58</v>
@@ -5780,15 +5784,15 @@
         <v>37</v>
       </c>
       <c r="H15" s="3">
-        <v>13726</v>
+        <v>14262</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>58</v>
@@ -5797,117 +5801,117 @@
         <v>37</v>
       </c>
       <c r="H16" s="3">
-        <v>13724</v>
+        <v>13726</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H17" s="3">
-        <v>12116</v>
+        <v>13724</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>148</v>
+        <v>70</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="H18" s="3">
-        <v>17579</v>
+        <v>12116</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="H19" s="3">
-        <v>12320</v>
+        <v>17579</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="H20" s="3">
-        <v>14120</v>
+        <v>12320</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>189</v>
+        <v>153</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>148</v>
+        <v>70</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="H21" s="3">
-        <v>17652</v>
+        <v>14120</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>37</v>
+        <v>74</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="H22" s="3">
-        <v>12347</v>
+        <v>17652</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>63</v>
@@ -5916,49 +5920,49 @@
         <v>37</v>
       </c>
       <c r="H23" s="3">
-        <v>12387</v>
+        <v>12347</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H24" s="3">
-        <v>9686</v>
+        <v>12387</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H25" s="3">
-        <v>12147</v>
+        <v>9686</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>63</v>
@@ -5967,15 +5971,15 @@
         <v>37</v>
       </c>
       <c r="H26" s="3">
-        <v>11772</v>
+        <v>12147</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>63</v>
@@ -5984,15 +5988,15 @@
         <v>37</v>
       </c>
       <c r="H27" s="3">
-        <v>12298</v>
+        <v>11772</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>63</v>
@@ -6001,57 +6005,74 @@
         <v>37</v>
       </c>
       <c r="H28" s="3">
-        <v>12362</v>
+        <v>12298</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H29" s="3">
-        <v>14048</v>
+        <v>12362</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>176</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H30" s="3">
-        <v>24043</v>
+        <v>14048</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="3">
+        <v>24043</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H31" s="3">
+      <c r="D32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="3">
         <v>14546</v>
       </c>
     </row>
@@ -6063,10 +6084,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621FDEC-049F-42F4-9153-BBF6657B44B9}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -6077,23 +6098,19 @@
     <col min="4" max="4" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.90625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.08984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.08984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.08984375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="20.7265625" style="6"/>
+    <col min="7" max="7" width="28.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.08984375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="20.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -6113,10 +6130,10 @@
         <v>107</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>109</v>
@@ -6125,34 +6142,22 @@
         <v>110</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="P1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -6166,7 +6171,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -6186,46 +6191,34 @@
         <v>164</v>
       </c>
       <c r="G3" s="6">
-        <v>173.4</v>
+        <v>190.7</v>
       </c>
       <c r="H3" s="6">
-        <v>190.7</v>
+        <v>197</v>
       </c>
       <c r="I3" s="6">
-        <v>96.74</v>
+        <v>81</v>
       </c>
       <c r="J3" s="6">
-        <v>237.6</v>
+        <v>208.3</v>
       </c>
       <c r="K3" s="6">
-        <v>197</v>
+        <v>85.29</v>
       </c>
       <c r="L3" s="6">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M3" s="6">
-        <v>81</v>
+        <v>131.41</v>
       </c>
       <c r="N3" s="6">
-        <v>208.3</v>
+        <v>92.77</v>
       </c>
       <c r="O3" s="6">
-        <v>85.29</v>
-      </c>
-      <c r="P3" s="6">
-        <v>118</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>131.41</v>
-      </c>
-      <c r="R3" s="6">
-        <v>92.77</v>
-      </c>
-      <c r="S3" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
@@ -6245,46 +6238,34 @@
         <v>152</v>
       </c>
       <c r="G4" s="2">
-        <v>159.6</v>
+        <v>173.6</v>
       </c>
       <c r="H4" s="2">
-        <v>173.6</v>
+        <v>178</v>
       </c>
       <c r="I4" s="2">
-        <v>89.54</v>
+        <v>75</v>
       </c>
       <c r="J4" s="2">
-        <v>215.87</v>
+        <v>201</v>
       </c>
       <c r="K4" s="2">
-        <v>178</v>
+        <v>76.319999999999993</v>
       </c>
       <c r="L4" s="2">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="M4" s="2">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="N4" s="2">
-        <v>201</v>
+        <v>88.11</v>
       </c>
       <c r="O4" s="2">
-        <v>76.319999999999993</v>
-      </c>
-      <c r="P4" s="2">
-        <v>102</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>117</v>
-      </c>
-      <c r="R4" s="2">
-        <v>88.11</v>
-      </c>
-      <c r="S4" s="2">
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -6304,51 +6285,39 @@
         <v>106</v>
       </c>
       <c r="G5" s="2">
-        <v>111.7</v>
+        <v>115.4</v>
       </c>
       <c r="H5" s="2">
-        <v>115.4</v>
+        <v>114</v>
       </c>
       <c r="I5" s="2">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2">
-        <v>136.94</v>
+        <v>162.30000000000001</v>
       </c>
       <c r="K5" s="2">
-        <v>114</v>
+        <v>20.86</v>
       </c>
       <c r="L5" s="2">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="M5" s="2">
-        <v>40</v>
+        <v>76.260000000000005</v>
       </c>
       <c r="N5" s="2">
-        <v>162.30000000000001</v>
+        <v>56.46</v>
       </c>
       <c r="O5" s="2">
-        <v>20.86</v>
-      </c>
-      <c r="P5" s="2">
-        <v>68</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>76.260000000000005</v>
-      </c>
-      <c r="R5" s="2">
-        <v>56.46</v>
-      </c>
-      <c r="S5" s="2">
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>58</v>
@@ -6363,51 +6332,39 @@
         <v>83</v>
       </c>
       <c r="G6" s="2">
-        <v>95.7</v>
+        <v>99.6</v>
       </c>
       <c r="H6" s="2">
-        <v>99.6</v>
+        <v>96</v>
       </c>
       <c r="I6" s="2">
-        <v>62.73</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2">
-        <v>112.88</v>
+        <v>142</v>
       </c>
       <c r="K6" s="2">
-        <v>96</v>
+        <v>56.58</v>
       </c>
       <c r="L6" s="2">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M6" s="2">
-        <v>43</v>
+        <v>66.39</v>
       </c>
       <c r="N6" s="2">
-        <v>142</v>
+        <v>37.590000000000003</v>
       </c>
       <c r="O6" s="2">
-        <v>56.58</v>
-      </c>
-      <c r="P6" s="2">
-        <v>58</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>66.39</v>
-      </c>
-      <c r="R6" s="2">
-        <v>37.590000000000003</v>
-      </c>
-      <c r="S6" s="2">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>63</v>
@@ -6416,7 +6373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -6430,7 +6387,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -6444,7 +6401,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -6460,11 +6417,11 @@
       <c r="E10" s="6">
         <v>71</v>
       </c>
-      <c r="K10" s="6">
+      <c r="H10" s="6">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -6477,16 +6434,16 @@
       <c r="D11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="6">
+      <c r="H11" s="6">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>63</v>
@@ -6497,13 +6454,13 @@
       <c r="F12" s="6">
         <v>57</v>
       </c>
-      <c r="K12" s="6">
+      <c r="H12" s="6">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>70</v>
@@ -6517,13 +6474,13 @@
       <c r="F13" s="6">
         <v>86</v>
       </c>
-      <c r="K13" s="6">
+      <c r="H13" s="6">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>74</v>
@@ -6537,16 +6494,16 @@
       <c r="F14" s="6">
         <v>61</v>
       </c>
-      <c r="K14" s="6">
+      <c r="H14" s="6">
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>58</v>
@@ -6557,16 +6514,16 @@
       <c r="F15" s="6">
         <v>71</v>
       </c>
-      <c r="K15" s="6">
+      <c r="H15" s="6">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>58</v>
@@ -6577,13 +6534,13 @@
       <c r="F16" s="6">
         <v>78</v>
       </c>
-      <c r="K16" s="6">
+      <c r="H16" s="6">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>70</v>
@@ -6597,33 +6554,33 @@
       <c r="F17" s="6">
         <v>65</v>
       </c>
-      <c r="K17" s="6">
+      <c r="H17" s="6">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F18" s="6">
         <v>119</v>
       </c>
-      <c r="K18" s="6">
+      <c r="H18" s="6">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>65</v>
@@ -6632,18 +6589,18 @@
         <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F19" s="6">
         <v>60</v>
       </c>
-      <c r="K19" s="6">
+      <c r="H19" s="6">
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>70</v>
@@ -6657,36 +6614,36 @@
       <c r="F20" s="6">
         <v>76</v>
       </c>
-      <c r="K20" s="6">
+      <c r="H20" s="6">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F21" s="6">
         <v>129</v>
       </c>
-      <c r="K21" s="6">
+      <c r="H21" s="6">
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>63</v>
@@ -6697,16 +6654,16 @@
       <c r="F22" s="6">
         <v>71</v>
       </c>
-      <c r="K22" s="6">
+      <c r="H22" s="6">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>63</v>
@@ -6717,19 +6674,19 @@
       <c r="F23" s="6">
         <v>63</v>
       </c>
-      <c r="K23" s="6">
+      <c r="H23" s="6">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>37</v>
@@ -6737,16 +6694,16 @@
       <c r="F24" s="6">
         <v>50</v>
       </c>
-      <c r="K24" s="6">
+      <c r="H24" s="6">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>63</v>
@@ -6754,16 +6711,16 @@
       <c r="D25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K25" s="6">
+      <c r="H25" s="6">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>63</v>
@@ -6771,16 +6728,16 @@
       <c r="D26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K26" s="6">
+      <c r="H26" s="6">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>63</v>
@@ -6791,16 +6748,16 @@
       <c r="F27" s="6">
         <v>53</v>
       </c>
-      <c r="K27" s="6">
+      <c r="H27" s="6">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>63</v>
@@ -6811,16 +6768,16 @@
       <c r="F28" s="6">
         <v>70</v>
       </c>
-      <c r="K28" s="6">
+      <c r="H28" s="6">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>58</v>
@@ -6831,16 +6788,16 @@
       <c r="F29" s="6">
         <v>66</v>
       </c>
-      <c r="K29" s="6">
+      <c r="H29" s="6">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>42</v>
@@ -6851,16 +6808,16 @@
       <c r="F30" s="6">
         <v>148</v>
       </c>
-      <c r="K30" s="6">
+      <c r="H30" s="6">
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>58</v>
@@ -6871,7 +6828,7 @@
       <c r="F31" s="6">
         <v>69</v>
       </c>
-      <c r="K31" s="6">
+      <c r="H31" s="6">
         <v>120</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tom.huang\Desktop\page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0D5915-F5B6-44A0-A2C3-F6A72E6BC2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3A67FB-B246-4E22-B8D9-2A7430EC6B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{5912F292-AF02-443D-9037-F31B49618F6B}"/>
   </bookViews>
   <sheets>
     <sheet name="SPEC" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="192">
   <si>
     <t>CPU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,10 +475,6 @@
   </si>
   <si>
     <t>Metro Exodus [Ultra]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster Hunter Wilds Benchmark [Ultra]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1276,7 +1272,7 @@
         <v>9</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>13</v>
@@ -1751,7 +1747,7 @@
         <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" s="1">
         <v>82</v>
@@ -1858,7 +1854,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="1">
         <v>82</v>
@@ -2387,13 +2383,13 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D12" s="1">
         <v>120</v>
@@ -2435,7 +2431,7 @@
         <v>500</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>46</v>
@@ -2474,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE12" s="1">
         <v>99</v>
@@ -2483,7 +2479,7 @@
         <v>210</v>
       </c>
       <c r="AG12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AH12" s="1">
         <v>19.899999999999999</v>
@@ -2494,7 +2490,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>57</v>
@@ -2539,13 +2535,13 @@
         <v>240</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>30</v>
@@ -2560,7 +2556,7 @@
         <v>48</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>50</v>
@@ -2581,7 +2577,7 @@
         <v>2</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE13" s="1">
         <v>84</v>
@@ -2590,10 +2586,10 @@
         <v>245</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AI13" s="1">
         <v>2</v>
@@ -2601,7 +2597,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>64</v>
@@ -2649,7 +2645,7 @@
         <v>500</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>46</v>
@@ -2697,10 +2693,10 @@
         <v>280</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AI14" s="1">
         <v>3</v>
@@ -2708,13 +2704,13 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D15" s="1">
         <v>140</v>
@@ -2756,10 +2752,10 @@
         <v>500</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>30</v>
@@ -2795,7 +2791,7 @@
         <v>2</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE15" s="1">
         <v>80</v>
@@ -2804,7 +2800,7 @@
         <v>250</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AH15" s="1">
         <v>24.8</v>
@@ -2815,13 +2811,13 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D16" s="1">
         <v>100</v>
@@ -2863,10 +2859,10 @@
         <v>500</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>30</v>
@@ -2884,10 +2880,10 @@
         <v>1</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>30</v>
@@ -2902,7 +2898,7 @@
         <v>2</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE16" s="1">
         <v>90</v>
@@ -2911,10 +2907,10 @@
         <v>240</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AH16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AI16" s="1">
         <v>2.5</v>
@@ -2922,7 +2918,7 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>57</v>
@@ -2970,7 +2966,7 @@
         <v>500</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>46</v>
@@ -3009,7 +3005,7 @@
         <v>2</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE17" s="1">
         <v>80</v>
@@ -3018,7 +3014,7 @@
         <v>250</v>
       </c>
       <c r="AG17" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AH17" s="1">
         <v>25.6</v>
@@ -3029,7 +3025,7 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>57</v>
@@ -3044,13 +3040,13 @@
         <v>140</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>30</v>
@@ -3077,7 +3073,7 @@
         <v>500</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>46</v>
@@ -3125,7 +3121,7 @@
         <v>330</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AH18" s="1">
         <v>22.9</v>
@@ -3136,13 +3132,13 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D19" s="1">
         <v>80</v>
@@ -3157,7 +3153,7 @@
         <v>59</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I19" s="1">
         <v>50</v>
@@ -3184,10 +3180,10 @@
         <v>400</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>29</v>
@@ -3202,7 +3198,7 @@
         <v>48</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>31</v>
@@ -3232,10 +3228,10 @@
         <v>200</v>
       </c>
       <c r="AG19" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AH19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AI19" s="1">
         <v>1.46</v>
@@ -3243,7 +3239,7 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>57</v>
@@ -3291,7 +3287,7 @@
         <v>400</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>46</v>
@@ -3312,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="X20" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>49</v>
@@ -3339,10 +3335,10 @@
         <v>280</v>
       </c>
       <c r="AG20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AH20" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="AH20" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="AI20" s="1">
         <v>2.2000000000000002</v>
@@ -3350,10 +3346,10 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>74</v>
@@ -3365,13 +3361,13 @@
         <v>110</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>30</v>
@@ -3398,7 +3394,7 @@
         <v>500</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>46</v>
@@ -3419,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="X21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>71</v>
@@ -3437,7 +3433,7 @@
         <v>2</v>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE21" s="1">
         <v>80</v>
@@ -3446,7 +3442,7 @@
         <v>280</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AH21" s="1">
         <v>24.8</v>
@@ -3457,13 +3453,13 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="D22" s="1">
         <v>115</v>
@@ -3505,10 +3501,10 @@
         <v>500</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>30</v>
@@ -3544,7 +3540,7 @@
         <v>2</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE22" s="1">
         <v>80</v>
@@ -3553,10 +3549,10 @@
         <v>245</v>
       </c>
       <c r="AG22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH22" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="AH22" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="AI22" s="1">
         <v>2.4</v>
@@ -3564,13 +3560,13 @@
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" s="1">
         <v>120</v>
@@ -3612,10 +3608,10 @@
         <v>500</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>30</v>
@@ -3633,10 +3629,10 @@
         <v>1</v>
       </c>
       <c r="X23" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>30</v>
@@ -3651,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE23" s="1">
         <v>80</v>
@@ -3660,7 +3656,7 @@
         <v>240</v>
       </c>
       <c r="AG23" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AH23" s="1">
         <v>26.9</v>
@@ -3671,13 +3667,13 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D24" s="1">
         <v>200</v>
@@ -3686,7 +3682,7 @@
         <v>130</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>59</v>
@@ -3719,10 +3715,10 @@
         <v>500</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>30</v>
@@ -3740,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="X24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>71</v>
@@ -3758,7 +3754,7 @@
         <v>2</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE24" s="1">
         <v>60</v>
@@ -3767,7 +3763,7 @@
         <v>250</v>
       </c>
       <c r="AG24" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AH24" s="1">
         <v>20</v>
@@ -3778,13 +3774,13 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D25" s="1">
         <v>195</v>
@@ -3826,7 +3822,7 @@
         <v>500</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R25" s="1" t="s">
         <v>46</v>
@@ -3865,7 +3861,7 @@
         <v>2</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE25" s="1">
         <v>80</v>
@@ -3874,10 +3870,10 @@
         <v>245</v>
       </c>
       <c r="AG25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH25" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="AH25" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="AI25" s="1">
         <v>2.4</v>
@@ -3885,13 +3881,13 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D26" s="1">
         <v>80</v>
@@ -3933,10 +3929,10 @@
         <v>500</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>30</v>
@@ -3957,7 +3953,7 @@
         <v>31</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>30</v>
@@ -3981,10 +3977,10 @@
         <v>230</v>
       </c>
       <c r="AG26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH26" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="AH26" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="AI26" s="1">
         <v>2.4</v>
@@ -3992,13 +3988,13 @@
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D27" s="1">
         <v>168</v>
@@ -4040,7 +4036,7 @@
         <v>400</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R27" s="1" t="s">
         <v>46</v>
@@ -4061,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="X27" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>71</v>
@@ -4079,7 +4075,7 @@
         <v>2</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AE27" s="1">
         <v>60</v>
@@ -4088,10 +4084,10 @@
         <v>245</v>
       </c>
       <c r="AG27" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AH27" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AI27" s="1">
         <v>2.1</v>
@@ -4099,13 +4095,13 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D28" s="1">
         <v>115</v>
@@ -4147,10 +4143,10 @@
         <v>500</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>30</v>
@@ -4186,7 +4182,7 @@
         <v>4</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE28" s="1">
         <v>80</v>
@@ -4195,10 +4191,10 @@
         <v>300</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AH28" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AI28" s="1">
         <v>2.56</v>
@@ -4206,13 +4202,13 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D29" s="1">
         <v>130</v>
@@ -4254,7 +4250,7 @@
         <v>500</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>46</v>
@@ -4278,7 +4274,7 @@
         <v>31</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>30</v>
@@ -4302,10 +4298,10 @@
         <v>230</v>
       </c>
       <c r="AG29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH29" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="AH29" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="AI29" s="1">
         <v>2.4</v>
@@ -4313,13 +4309,13 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D30" s="1">
         <v>110</v>
@@ -4349,7 +4345,7 @@
         <v>16</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>26</v>
@@ -4361,7 +4357,7 @@
         <v>1200</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>46</v>
@@ -4420,13 +4416,13 @@
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D31" s="1">
         <v>90</v>
@@ -4471,7 +4467,7 @@
         <v>27</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>30</v>
@@ -4791,7 +4787,7 @@
         <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>58</v>
@@ -4829,7 +4825,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>63</v>
@@ -4980,10 +4976,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>63</v>
@@ -5000,7 +4996,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>70</v>
@@ -5020,7 +5016,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>74</v>
@@ -5040,10 +5036,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>58</v>
@@ -5060,10 +5056,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>58</v>
@@ -5080,7 +5076,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>70</v>
@@ -5100,16 +5096,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E18" s="1">
         <v>2095</v>
@@ -5120,7 +5116,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>65</v>
@@ -5129,7 +5125,7 @@
         <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E19" s="1">
         <v>1756</v>
@@ -5140,7 +5136,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>70</v>
@@ -5160,16 +5156,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="1">
         <v>2126</v>
@@ -5180,10 +5176,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>63</v>
@@ -5200,10 +5196,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>63</v>
@@ -5220,13 +5216,13 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>37</v>
@@ -5240,10 +5236,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>63</v>
@@ -5260,10 +5256,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>63</v>
@@ -5280,10 +5276,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>63</v>
@@ -5300,10 +5296,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>63</v>
@@ -5320,10 +5316,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>58</v>
@@ -5340,10 +5336,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>42</v>
@@ -5366,10 +5362,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>58</v>
@@ -5394,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAE2845-E5DA-4A2F-AF36-B0EED8E1A7B7}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -5536,10 +5532,10 @@
         <v>41</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="E5" s="5">
         <v>43405</v>
@@ -5591,7 +5587,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>58</v>
@@ -5620,7 +5616,7 @@
         <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>63</v>
@@ -5738,10 +5734,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>63</v>
@@ -5755,7 +5751,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>70</v>
@@ -5772,7 +5768,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>74</v>
@@ -5789,10 +5785,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>58</v>
@@ -5806,10 +5802,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>58</v>
@@ -5823,7 +5819,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>70</v>
@@ -5840,16 +5836,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H19" s="3">
         <v>17579</v>
@@ -5857,7 +5853,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>65</v>
@@ -5866,7 +5862,7 @@
         <v>63</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H20" s="3">
         <v>12320</v>
@@ -5874,7 +5870,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>70</v>
@@ -5891,16 +5887,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H22" s="3">
         <v>17652</v>
@@ -5908,10 +5904,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>63</v>
@@ -5925,10 +5921,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>63</v>
@@ -5942,13 +5938,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>37</v>
@@ -5959,10 +5955,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>63</v>
@@ -5976,10 +5972,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>63</v>
@@ -5993,10 +5989,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>63</v>
@@ -6010,10 +6006,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>63</v>
@@ -6027,10 +6023,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>58</v>
@@ -6044,10 +6040,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>42</v>
@@ -6061,10 +6057,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>58</v>
@@ -6084,10 +6080,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0621FDEC-049F-42F4-9153-BBF6657B44B9}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:O1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7265625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -6105,12 +6101,11 @@
     <col min="11" max="11" width="47.7265625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.453125" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="20.7265625" style="6"/>
+    <col min="14" max="14" width="27.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="20.7265625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -6133,7 +6128,7 @@
         <v>108</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>109</v>
@@ -6153,11 +6148,8 @@
       <c r="N1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -6171,7 +6163,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -6212,13 +6204,10 @@
         <v>131.41</v>
       </c>
       <c r="N3" s="6">
-        <v>92.77</v>
-      </c>
-      <c r="O3" s="6">
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
@@ -6259,13 +6248,10 @@
         <v>117</v>
       </c>
       <c r="N4" s="2">
-        <v>88.11</v>
-      </c>
-      <c r="O4" s="2">
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -6306,18 +6292,15 @@
         <v>76.260000000000005</v>
       </c>
       <c r="N5" s="2">
-        <v>56.46</v>
-      </c>
-      <c r="O5" s="2">
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>58</v>
@@ -6353,18 +6336,15 @@
         <v>66.39</v>
       </c>
       <c r="N6" s="2">
-        <v>37.590000000000003</v>
-      </c>
-      <c r="O6" s="2">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>63</v>
@@ -6373,7 +6353,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>87</v>
       </c>
@@ -6387,7 +6367,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>87</v>
       </c>
@@ -6401,7 +6381,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>88</v>
       </c>
@@ -6421,7 +6401,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -6438,12 +6418,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>63</v>
@@ -6458,9 +6438,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>70</v>
@@ -6478,9 +6458,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>74</v>
@@ -6498,12 +6478,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>58</v>
@@ -6518,12 +6498,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>58</v>
@@ -6540,7 +6520,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>70</v>
@@ -6560,16 +6540,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F18" s="6">
         <v>119</v>
@@ -6580,7 +6560,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>65</v>
@@ -6589,7 +6569,7 @@
         <v>63</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F19" s="6">
         <v>60</v>
@@ -6600,7 +6580,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>70</v>
@@ -6620,16 +6600,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F21" s="6">
         <v>129</v>
@@ -6640,10 +6620,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>63</v>
@@ -6660,10 +6640,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>63</v>
@@ -6680,13 +6660,13 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>37</v>
@@ -6700,10 +6680,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>63</v>
@@ -6717,10 +6697,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>63</v>
@@ -6734,10 +6714,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>63</v>
@@ -6754,10 +6734,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>63</v>
@@ -6774,10 +6754,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>58</v>
@@ -6794,10 +6774,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>42</v>
@@ -6814,10 +6794,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>58</v>
